--- a/2020年1-6月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-6月金源消耗表（财务运营共享版）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="792"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12585" tabRatio="792"/>
   </bookViews>
   <sheets>
     <sheet name="客户表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AL$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AL$364</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">媒体表!$A$1:$U$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4988" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4984" uniqueCount="365">
   <si>
     <t>周期</t>
   </si>
@@ -27462,51 +27462,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:AL364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R367" sqref="R367"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T368" sqref="T368"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.36328125" customWidth="1"/>
-    <col min="7" max="7" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.90625" customWidth="1"/>
+    <col min="11" max="11" width="25.875" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="6.90625" customWidth="1"/>
+    <col min="13" max="13" width="6.875" customWidth="1"/>
     <col min="14" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="6.90625" customWidth="1"/>
+    <col min="17" max="17" width="6.875" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="20" width="14.08984375" customWidth="1"/>
+    <col min="19" max="20" width="14.125" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="14.08984375" customWidth="1"/>
+    <col min="22" max="22" width="14.125" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="16.6328125" customWidth="1"/>
-    <col min="26" max="26" width="13.36328125" customWidth="1"/>
-    <col min="28" max="28" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.08984375" customWidth="1"/>
-    <col min="33" max="33" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.453125" customWidth="1"/>
+    <col min="25" max="25" width="16.625" customWidth="1"/>
+    <col min="26" max="26" width="13.375" customWidth="1"/>
+    <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.125" customWidth="1"/>
+    <col min="33" max="33" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.875" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="26">
+    <row r="1" spans="1:38" ht="28.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27622,7 +27622,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" ht="14.25" hidden="1">
       <c r="A2" s="56">
         <v>43831</v>
       </c>
@@ -27708,7 +27708,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" ht="14.25" hidden="1">
       <c r="A3" s="56">
         <v>43831</v>
       </c>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" ht="14.25" hidden="1">
       <c r="A4" s="56">
         <v>43831</v>
       </c>
@@ -27879,7 +27879,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" ht="14.25" hidden="1">
       <c r="A5" s="56">
         <v>43831</v>
       </c>
@@ -27963,7 +27963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" ht="14.25" hidden="1">
       <c r="A6" s="56">
         <v>43831</v>
       </c>
@@ -28047,7 +28047,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" ht="14.25" hidden="1">
       <c r="A7" s="56">
         <v>43831</v>
       </c>
@@ -28131,7 +28131,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" ht="14.25" hidden="1">
       <c r="A8" s="56">
         <v>43831</v>
       </c>
@@ -28215,7 +28215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" ht="14.25" hidden="1">
       <c r="A9" s="56">
         <v>43831</v>
       </c>
@@ -28303,7 +28303,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" ht="14.25" hidden="1">
       <c r="A10" s="56">
         <v>43831</v>
       </c>
@@ -28385,7 +28385,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" ht="14.25" hidden="1">
       <c r="A11" s="56">
         <v>43831</v>
       </c>
@@ -28469,7 +28469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" ht="14.25" hidden="1">
       <c r="A12" s="56">
         <v>43831</v>
       </c>
@@ -28552,7 +28552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" ht="14.25" hidden="1">
       <c r="A13" s="56">
         <v>43831</v>
       </c>
@@ -28636,7 +28636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" ht="14.25" hidden="1">
       <c r="A14" s="56">
         <v>43831</v>
       </c>
@@ -28720,7 +28720,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" ht="14.25" hidden="1">
       <c r="A15" s="56">
         <v>43831</v>
       </c>
@@ -28804,7 +28804,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" ht="14.25" hidden="1">
       <c r="A16" s="56">
         <v>43831</v>
       </c>
@@ -28888,7 +28888,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" ht="14.25" hidden="1">
       <c r="A17" s="56">
         <v>43831</v>
       </c>
@@ -28972,7 +28972,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:31" ht="14.25" hidden="1">
       <c r="A18" s="56">
         <v>43831</v>
       </c>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:31" ht="14.25" hidden="1">
       <c r="A19" s="56">
         <v>43831</v>
       </c>
@@ -29140,7 +29140,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:31" ht="14.25" hidden="1">
       <c r="A20" s="56">
         <v>43831</v>
       </c>
@@ -29224,7 +29224,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:31" ht="14.25" hidden="1">
       <c r="A21" s="56">
         <v>43831</v>
       </c>
@@ -29308,7 +29308,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:31" ht="14.25">
       <c r="A22" s="56">
         <v>43831</v>
       </c>
@@ -29367,7 +29367,7 @@
       </c>
       <c r="V22" s="22">
         <f t="shared" si="5"/>
-        <v>3043.805084745763</v>
+        <v>3187.624875</v>
       </c>
       <c r="W22" s="22"/>
       <c r="X22" s="22">
@@ -29376,7 +29376,7 @@
       </c>
       <c r="Y22" s="23">
         <f t="shared" si="6"/>
-        <v>547.88491525423706</v>
+        <v>404.06512500000008</v>
       </c>
       <c r="Z22" s="20">
         <f t="shared" si="7"/>
@@ -29388,11 +29388,11 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="5"/>
-      <c r="AE22" s="10" t="s">
-        <v>84</v>
+      <c r="AE22" s="10">
+        <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:31" ht="14.25" hidden="1">
       <c r="A23" s="56">
         <v>43831</v>
       </c>
@@ -29476,7 +29476,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:31" ht="14.25" hidden="1">
       <c r="A24" s="56">
         <v>43831</v>
       </c>
@@ -29560,7 +29560,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:31" ht="14.25" hidden="1">
       <c r="A25" s="56">
         <v>43831</v>
       </c>
@@ -29644,7 +29644,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:31" ht="14.25" hidden="1">
       <c r="A26" s="56">
         <v>43831</v>
       </c>
@@ -29728,7 +29728,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:31" ht="14.25" hidden="1">
       <c r="A27" s="56">
         <v>43831</v>
       </c>
@@ -29812,7 +29812,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:31" ht="14.25" hidden="1">
       <c r="A28" s="56">
         <v>43831</v>
       </c>
@@ -29896,7 +29896,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:31" ht="14.25" hidden="1">
       <c r="A29" s="56">
         <v>43831</v>
       </c>
@@ -29980,7 +29980,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:31" ht="14.25" hidden="1">
       <c r="A30" s="56">
         <v>43831</v>
       </c>
@@ -30064,7 +30064,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:31" ht="14.25" hidden="1">
       <c r="A31" s="56">
         <v>43831</v>
       </c>
@@ -30148,7 +30148,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:31" ht="14.25" hidden="1">
       <c r="A32" s="56">
         <v>43831</v>
       </c>
@@ -30232,7 +30232,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" ht="14.25" hidden="1">
       <c r="A33" s="56">
         <v>43831</v>
       </c>
@@ -30316,7 +30316,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" ht="14.25" hidden="1">
       <c r="A34" s="56">
         <v>43831</v>
       </c>
@@ -30400,7 +30400,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" ht="14.25" hidden="1">
       <c r="A35" s="56">
         <v>43831</v>
       </c>
@@ -30484,7 +30484,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" ht="14.25" hidden="1">
       <c r="A36" s="56">
         <v>43831</v>
       </c>
@@ -30568,7 +30568,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" ht="14.25" hidden="1">
       <c r="A37" s="56">
         <v>43831</v>
       </c>
@@ -30652,7 +30652,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" ht="14.25" hidden="1">
       <c r="A38" s="56">
         <v>43831</v>
       </c>
@@ -30736,7 +30736,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" ht="14.25" hidden="1">
       <c r="A39" s="56">
         <v>43831</v>
       </c>
@@ -30820,7 +30820,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" ht="14.25" hidden="1">
       <c r="A40" s="56">
         <v>43831</v>
       </c>
@@ -30904,7 +30904,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:31">
+    <row r="41" spans="1:31" ht="14.25" hidden="1">
       <c r="A41" s="56">
         <v>43831</v>
       </c>
@@ -30988,7 +30988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31">
+    <row r="42" spans="1:31" ht="14.25" hidden="1">
       <c r="A42" s="56">
         <v>43831</v>
       </c>
@@ -31072,7 +31072,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" ht="14.25" hidden="1">
       <c r="A43" s="56">
         <v>43831</v>
       </c>
@@ -31156,7 +31156,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" ht="14.25" hidden="1">
       <c r="A44" s="56">
         <v>43831</v>
       </c>
@@ -31240,7 +31240,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="45" spans="1:31">
+    <row r="45" spans="1:31" ht="14.25" hidden="1">
       <c r="A45" s="56">
         <v>43831</v>
       </c>
@@ -31324,7 +31324,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" ht="14.25" hidden="1">
       <c r="A46" s="56">
         <v>43831</v>
       </c>
@@ -31408,7 +31408,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" ht="14.25" hidden="1">
       <c r="A47" s="56">
         <v>43831</v>
       </c>
@@ -31492,7 +31492,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" ht="14.25" hidden="1">
       <c r="A48" s="56">
         <v>43831</v>
       </c>
@@ -31576,7 +31576,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" ht="14.25" hidden="1">
       <c r="A49" s="56">
         <v>43831</v>
       </c>
@@ -31660,7 +31660,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" ht="14.25" hidden="1">
       <c r="A50" s="56">
         <v>43831</v>
       </c>
@@ -31744,7 +31744,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" ht="14.25" hidden="1">
       <c r="A51" s="56">
         <v>43831</v>
       </c>
@@ -31828,7 +31828,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" ht="14.25" hidden="1">
       <c r="A52" s="56">
         <v>43831</v>
       </c>
@@ -31912,7 +31912,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" ht="14.25" hidden="1">
       <c r="A53" s="56">
         <v>43831</v>
       </c>
@@ -31996,7 +31996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" ht="14.25" hidden="1">
       <c r="A54" s="56">
         <v>43831</v>
       </c>
@@ -32080,7 +32080,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" ht="14.25" hidden="1">
       <c r="A55" s="56">
         <v>43831</v>
       </c>
@@ -32164,7 +32164,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" ht="14.25" hidden="1">
       <c r="A56" s="56">
         <v>43831</v>
       </c>
@@ -32248,7 +32248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" ht="14.25" hidden="1">
       <c r="A57" s="56">
         <v>43831</v>
       </c>
@@ -32335,7 +32335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" ht="14.25" hidden="1">
       <c r="A58" s="56">
         <v>43831</v>
       </c>
@@ -32420,7 +32420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" ht="14.25" hidden="1">
       <c r="A59" s="56">
         <v>43831</v>
       </c>
@@ -32504,7 +32504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" ht="14.25" hidden="1">
       <c r="A60" s="56">
         <v>43831</v>
       </c>
@@ -32591,7 +32591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" ht="14.25" hidden="1">
       <c r="A61" s="56">
         <v>43831</v>
       </c>
@@ -32675,7 +32675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" ht="14.25" hidden="1">
       <c r="A62" s="56">
         <v>43831</v>
       </c>
@@ -32759,7 +32759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" ht="14.25" hidden="1">
       <c r="A63" s="56">
         <v>43831</v>
       </c>
@@ -32843,7 +32843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" ht="14.25" hidden="1">
       <c r="A64" s="56">
         <v>43831</v>
       </c>
@@ -32921,7 +32921,7 @@
       </c>
       <c r="AE64" s="6"/>
     </row>
-    <row r="65" spans="1:31">
+    <row r="65" spans="1:31" ht="14.25" hidden="1">
       <c r="A65" s="56">
         <v>43831</v>
       </c>
@@ -33001,7 +33001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31">
+    <row r="66" spans="1:31" ht="14.25" hidden="1">
       <c r="A66" s="56">
         <v>43831</v>
       </c>
@@ -33081,7 +33081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31">
+    <row r="67" spans="1:31" ht="14.25" hidden="1">
       <c r="A67" s="56">
         <v>43831</v>
       </c>
@@ -33163,7 +33163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31">
+    <row r="68" spans="1:31" ht="14.25" hidden="1">
       <c r="A68" s="56">
         <v>43831</v>
       </c>
@@ -33245,7 +33245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31">
+    <row r="69" spans="1:31" ht="14.25" hidden="1">
       <c r="A69" s="56">
         <v>43831</v>
       </c>
@@ -33327,7 +33327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31">
+    <row r="70" spans="1:31" ht="14.25" hidden="1">
       <c r="A70" s="56">
         <v>43831</v>
       </c>
@@ -33409,7 +33409,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:31">
+    <row r="71" spans="1:31" ht="14.25" hidden="1">
       <c r="A71" s="56">
         <v>43862</v>
       </c>
@@ -33495,7 +33495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31">
+    <row r="72" spans="1:31" ht="14.25" hidden="1">
       <c r="A72" s="56">
         <v>43862</v>
       </c>
@@ -33578,7 +33578,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="73" spans="1:31">
+    <row r="73" spans="1:31" ht="14.25" hidden="1">
       <c r="A73" s="56">
         <v>43862</v>
       </c>
@@ -33664,7 +33664,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:31">
+    <row r="74" spans="1:31" ht="14.25" hidden="1">
       <c r="A74" s="56">
         <v>43862</v>
       </c>
@@ -33752,7 +33752,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="75" spans="1:31">
+    <row r="75" spans="1:31" ht="14.25" hidden="1">
       <c r="A75" s="56">
         <v>43862</v>
       </c>
@@ -33836,7 +33836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31">
+    <row r="76" spans="1:31" ht="14.25" hidden="1">
       <c r="A76" s="56">
         <v>43862</v>
       </c>
@@ -33920,7 +33920,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:31">
+    <row r="77" spans="1:31" ht="14.25" hidden="1">
       <c r="A77" s="56">
         <v>43862</v>
       </c>
@@ -34004,7 +34004,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:31">
+    <row r="78" spans="1:31" ht="14.25" hidden="1">
       <c r="A78" s="56">
         <v>43862</v>
       </c>
@@ -34088,7 +34088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31">
+    <row r="79" spans="1:31" ht="14.25" hidden="1">
       <c r="A79" s="56">
         <v>43862</v>
       </c>
@@ -34172,7 +34172,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="80" spans="1:31">
+    <row r="80" spans="1:31" ht="14.25" hidden="1">
       <c r="A80" s="56">
         <v>43862</v>
       </c>
@@ -34256,7 +34256,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="81" spans="1:31">
+    <row r="81" spans="1:31" ht="14.25" hidden="1">
       <c r="A81" s="56">
         <v>43862</v>
       </c>
@@ -34340,7 +34340,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="82" spans="1:31">
+    <row r="82" spans="1:31" ht="14.25" hidden="1">
       <c r="A82" s="56">
         <v>43862</v>
       </c>
@@ -34426,7 +34426,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="83" spans="1:31">
+    <row r="83" spans="1:31" ht="14.25" hidden="1">
       <c r="A83" s="56">
         <v>43862</v>
       </c>
@@ -34510,7 +34510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31">
+    <row r="84" spans="1:31" ht="14.25" hidden="1">
       <c r="A84" s="56">
         <v>43862</v>
       </c>
@@ -34594,7 +34594,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:31">
+    <row r="85" spans="1:31" ht="14.25" hidden="1">
       <c r="A85" s="56">
         <v>43862</v>
       </c>
@@ -34678,7 +34678,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="86" spans="1:31">
+    <row r="86" spans="1:31" ht="14.25" hidden="1">
       <c r="A86" s="56">
         <v>43862</v>
       </c>
@@ -34762,7 +34762,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:31">
+    <row r="87" spans="1:31" ht="14.25">
       <c r="A87" s="56">
         <v>43862</v>
       </c>
@@ -34842,11 +34842,11 @@
       <c r="AB87" s="39"/>
       <c r="AC87" s="39"/>
       <c r="AD87" s="39"/>
-      <c r="AE87" s="14" t="s">
-        <v>84</v>
+      <c r="AE87" s="10">
+        <v>0.42</v>
       </c>
     </row>
-    <row r="88" spans="1:31">
+    <row r="88" spans="1:31" ht="14.25" hidden="1">
       <c r="A88" s="56">
         <v>43862</v>
       </c>
@@ -34930,7 +34930,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="89" spans="1:31">
+    <row r="89" spans="1:31" ht="14.25" hidden="1">
       <c r="A89" s="56">
         <v>43862</v>
       </c>
@@ -35014,7 +35014,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="90" spans="1:31">
+    <row r="90" spans="1:31" ht="14.25" hidden="1">
       <c r="A90" s="56">
         <v>43862</v>
       </c>
@@ -35098,7 +35098,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="91" spans="1:31">
+    <row r="91" spans="1:31" ht="14.25" hidden="1">
       <c r="A91" s="56">
         <v>43862</v>
       </c>
@@ -35182,7 +35182,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:31">
+    <row r="92" spans="1:31" ht="14.25" hidden="1">
       <c r="A92" s="56">
         <v>43862</v>
       </c>
@@ -35266,7 +35266,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="93" spans="1:31">
+    <row r="93" spans="1:31" ht="14.25" hidden="1">
       <c r="A93" s="56">
         <v>43862</v>
       </c>
@@ -35350,7 +35350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:31">
+    <row r="94" spans="1:31" ht="14.25" hidden="1">
       <c r="A94" s="56">
         <v>43862</v>
       </c>
@@ -35434,7 +35434,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:31">
+    <row r="95" spans="1:31" ht="14.25" hidden="1">
       <c r="A95" s="56">
         <v>43862</v>
       </c>
@@ -35518,7 +35518,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="96" spans="1:31">
+    <row r="96" spans="1:31" ht="14.25" hidden="1">
       <c r="A96" s="56">
         <v>43862</v>
       </c>
@@ -35602,7 +35602,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="97" spans="1:31">
+    <row r="97" spans="1:31" ht="14.25" hidden="1">
       <c r="A97" s="56">
         <v>43862</v>
       </c>
@@ -35686,7 +35686,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:31">
+    <row r="98" spans="1:31" ht="14.25" hidden="1">
       <c r="A98" s="56">
         <v>43862</v>
       </c>
@@ -35770,7 +35770,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="99" spans="1:31">
+    <row r="99" spans="1:31" ht="14.25" hidden="1">
       <c r="A99" s="56">
         <v>43862</v>
       </c>
@@ -35854,7 +35854,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="100" spans="1:31">
+    <row r="100" spans="1:31" ht="14.25" hidden="1">
       <c r="A100" s="56">
         <v>43862</v>
       </c>
@@ -35938,7 +35938,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="101" spans="1:31">
+    <row r="101" spans="1:31" ht="14.25" hidden="1">
       <c r="A101" s="56">
         <v>43862</v>
       </c>
@@ -36022,7 +36022,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="102" spans="1:31">
+    <row r="102" spans="1:31" ht="14.25" hidden="1">
       <c r="A102" s="56">
         <v>43862</v>
       </c>
@@ -36106,7 +36106,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="103" spans="1:31">
+    <row r="103" spans="1:31" ht="14.25" hidden="1">
       <c r="A103" s="56">
         <v>43862</v>
       </c>
@@ -36190,7 +36190,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="104" spans="1:31">
+    <row r="104" spans="1:31" ht="14.25" hidden="1">
       <c r="A104" s="56">
         <v>43862</v>
       </c>
@@ -36274,7 +36274,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="105" spans="1:31">
+    <row r="105" spans="1:31" ht="14.25" hidden="1">
       <c r="A105" s="56">
         <v>43862</v>
       </c>
@@ -36358,7 +36358,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="106" spans="1:31">
+    <row r="106" spans="1:31" ht="14.25" hidden="1">
       <c r="A106" s="56">
         <v>43862</v>
       </c>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31">
+    <row r="107" spans="1:31" ht="14.25" hidden="1">
       <c r="A107" s="56">
         <v>43862</v>
       </c>
@@ -36526,7 +36526,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="108" spans="1:31">
+    <row r="108" spans="1:31" ht="14.25" hidden="1">
       <c r="A108" s="56">
         <v>43862</v>
       </c>
@@ -36610,7 +36610,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="109" spans="1:31">
+    <row r="109" spans="1:31" ht="14.25" hidden="1">
       <c r="A109" s="56">
         <v>43862</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:31">
+    <row r="110" spans="1:31" ht="14.25" hidden="1">
       <c r="A110" s="56">
         <v>43862</v>
       </c>
@@ -36778,7 +36778,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:31">
+    <row r="111" spans="1:31" ht="14.25" hidden="1">
       <c r="A111" s="56">
         <v>43862</v>
       </c>
@@ -36862,7 +36862,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="1:31">
+    <row r="112" spans="1:31" ht="14.25" hidden="1">
       <c r="A112" s="56">
         <v>43862</v>
       </c>
@@ -36946,7 +36946,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="113" spans="1:31">
+    <row r="113" spans="1:31" ht="14.25" hidden="1">
       <c r="A113" s="56">
         <v>43862</v>
       </c>
@@ -37030,7 +37030,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="114" spans="1:31">
+    <row r="114" spans="1:31" ht="14.25" hidden="1">
       <c r="A114" s="56">
         <v>43862</v>
       </c>
@@ -37114,7 +37114,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="115" spans="1:31">
+    <row r="115" spans="1:31" ht="14.25" hidden="1">
       <c r="A115" s="56">
         <v>43862</v>
       </c>
@@ -37198,7 +37198,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="116" spans="1:31">
+    <row r="116" spans="1:31" ht="14.25" hidden="1">
       <c r="A116" s="56">
         <v>43862</v>
       </c>
@@ -37282,7 +37282,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="117" spans="1:31">
+    <row r="117" spans="1:31" ht="14.25" hidden="1">
       <c r="A117" s="56">
         <v>43862</v>
       </c>
@@ -37366,7 +37366,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="118" spans="1:31">
+    <row r="118" spans="1:31" ht="14.25" hidden="1">
       <c r="A118" s="56">
         <v>43862</v>
       </c>
@@ -37450,7 +37450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:31">
+    <row r="119" spans="1:31" ht="14.25" hidden="1">
       <c r="A119" s="56">
         <v>43862</v>
       </c>
@@ -37534,7 +37534,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="120" spans="1:31">
+    <row r="120" spans="1:31" ht="14.25" hidden="1">
       <c r="A120" s="56">
         <v>43862</v>
       </c>
@@ -37618,7 +37618,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="121" spans="1:31">
+    <row r="121" spans="1:31" ht="14.25" hidden="1">
       <c r="A121" s="56">
         <v>43862</v>
       </c>
@@ -37702,7 +37702,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="122" spans="1:31">
+    <row r="122" spans="1:31" ht="14.25" hidden="1">
       <c r="A122" s="56">
         <v>43862</v>
       </c>
@@ -37791,7 +37791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:31">
+    <row r="123" spans="1:31" ht="14.25" hidden="1">
       <c r="A123" s="56">
         <v>43862</v>
       </c>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:31">
+    <row r="124" spans="1:31" ht="14.25" hidden="1">
       <c r="A124" s="56">
         <v>43862</v>
       </c>
@@ -37963,7 +37963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:31">
+    <row r="125" spans="1:31" ht="14.25" hidden="1">
       <c r="A125" s="56">
         <v>43862</v>
       </c>
@@ -38047,7 +38047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:31">
+    <row r="126" spans="1:31" ht="14.25" hidden="1">
       <c r="A126" s="56">
         <v>43862</v>
       </c>
@@ -38133,7 +38133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:31">
+    <row r="127" spans="1:31" ht="14.25" hidden="1">
       <c r="A127" s="56">
         <v>43862</v>
       </c>
@@ -38219,7 +38219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31">
+    <row r="128" spans="1:31" ht="14.25" hidden="1">
       <c r="A128" s="56">
         <v>43862</v>
       </c>
@@ -38305,7 +38305,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:31">
+    <row r="129" spans="1:31" ht="14.25" hidden="1">
       <c r="A129" s="65">
         <v>43891</v>
       </c>
@@ -38391,7 +38391,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:31">
+    <row r="130" spans="1:31" ht="14.25" hidden="1">
       <c r="A130" s="65">
         <v>43891</v>
       </c>
@@ -38481,7 +38481,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:31">
+    <row r="131" spans="1:31" ht="14.25" hidden="1">
       <c r="A131" s="65">
         <v>43891</v>
       </c>
@@ -38567,7 +38567,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:31">
+    <row r="132" spans="1:31" ht="14.25" hidden="1">
       <c r="A132" s="65">
         <v>43891</v>
       </c>
@@ -38650,7 +38650,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="133" spans="1:31">
+    <row r="133" spans="1:31" ht="14.25" hidden="1">
       <c r="A133" s="65">
         <v>43891</v>
       </c>
@@ -38734,7 +38734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:31">
+    <row r="134" spans="1:31" ht="14.25" hidden="1">
       <c r="A134" s="65">
         <v>43891</v>
       </c>
@@ -38818,7 +38818,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:31">
+    <row r="135" spans="1:31" ht="14.25" hidden="1">
       <c r="A135" s="65">
         <v>43891</v>
       </c>
@@ -38902,7 +38902,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:31">
+    <row r="136" spans="1:31" ht="14.25" hidden="1">
       <c r="A136" s="65">
         <v>43891</v>
       </c>
@@ -38986,7 +38986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:31">
+    <row r="137" spans="1:31" ht="14.25" hidden="1">
       <c r="A137" s="65">
         <v>43891</v>
       </c>
@@ -39070,7 +39070,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="138" spans="1:31">
+    <row r="138" spans="1:31" ht="14.25" hidden="1">
       <c r="A138" s="65">
         <v>43891</v>
       </c>
@@ -39154,7 +39154,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="139" spans="1:31">
+    <row r="139" spans="1:31" ht="14.25" hidden="1">
       <c r="A139" s="65">
         <v>43891</v>
       </c>
@@ -39238,7 +39238,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="140" spans="1:31">
+    <row r="140" spans="1:31" ht="14.25" hidden="1">
       <c r="A140" s="65">
         <v>43891</v>
       </c>
@@ -39322,7 +39322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:31">
+    <row r="141" spans="1:31" ht="14.25" hidden="1">
       <c r="A141" s="65">
         <v>43891</v>
       </c>
@@ -39406,7 +39406,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="142" spans="1:31">
+    <row r="142" spans="1:31" ht="14.25" hidden="1">
       <c r="A142" s="65">
         <v>43891</v>
       </c>
@@ -39490,7 +39490,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="143" spans="1:31">
+    <row r="143" spans="1:31" ht="14.25" hidden="1">
       <c r="A143" s="65">
         <v>43891</v>
       </c>
@@ -39574,7 +39574,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:31">
+    <row r="144" spans="1:31" ht="14.25">
       <c r="A144" s="65">
         <v>43891</v>
       </c>
@@ -39654,11 +39654,11 @@
       <c r="AB144" s="23"/>
       <c r="AC144" s="41"/>
       <c r="AD144" s="41"/>
-      <c r="AE144" s="14" t="s">
-        <v>84</v>
+      <c r="AE144" s="10">
+        <v>0.42</v>
       </c>
     </row>
-    <row r="145" spans="1:31">
+    <row r="145" spans="1:31" ht="14.25" hidden="1">
       <c r="A145" s="65">
         <v>43891</v>
       </c>
@@ -39742,7 +39742,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="146" spans="1:31">
+    <row r="146" spans="1:31" ht="14.25" hidden="1">
       <c r="A146" s="65">
         <v>43891</v>
       </c>
@@ -39826,7 +39826,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="147" spans="1:31">
+    <row r="147" spans="1:31" ht="14.25" hidden="1">
       <c r="A147" s="65">
         <v>43891</v>
       </c>
@@ -39910,7 +39910,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="148" spans="1:31">
+    <row r="148" spans="1:31" ht="14.25" hidden="1">
       <c r="A148" s="65">
         <v>43891</v>
       </c>
@@ -39994,7 +39994,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:31">
+    <row r="149" spans="1:31" ht="14.25" hidden="1">
       <c r="A149" s="65">
         <v>43891</v>
       </c>
@@ -40078,7 +40078,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="150" spans="1:31">
+    <row r="150" spans="1:31" ht="14.25" hidden="1">
       <c r="A150" s="65">
         <v>43891</v>
       </c>
@@ -40162,7 +40162,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:31">
+    <row r="151" spans="1:31" ht="14.25" hidden="1">
       <c r="A151" s="65">
         <v>43891</v>
       </c>
@@ -40246,7 +40246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:31">
+    <row r="152" spans="1:31" ht="14.25" hidden="1">
       <c r="A152" s="65">
         <v>43891</v>
       </c>
@@ -40330,7 +40330,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="153" spans="1:31">
+    <row r="153" spans="1:31" ht="14.25" hidden="1">
       <c r="A153" s="65">
         <v>43891</v>
       </c>
@@ -40414,7 +40414,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="154" spans="1:31">
+    <row r="154" spans="1:31" ht="14.25" hidden="1">
       <c r="A154" s="65">
         <v>43891</v>
       </c>
@@ -40498,7 +40498,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="155" spans="1:31">
+    <row r="155" spans="1:31" ht="14.25" hidden="1">
       <c r="A155" s="65">
         <v>43891</v>
       </c>
@@ -40582,7 +40582,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="156" spans="1:31">
+    <row r="156" spans="1:31" ht="14.25" hidden="1">
       <c r="A156" s="65">
         <v>43891</v>
       </c>
@@ -40666,7 +40666,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="157" spans="1:31">
+    <row r="157" spans="1:31" ht="14.25" hidden="1">
       <c r="A157" s="65">
         <v>43891</v>
       </c>
@@ -40750,7 +40750,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:31">
+    <row r="158" spans="1:31" ht="14.25" hidden="1">
       <c r="A158" s="65">
         <v>43891</v>
       </c>
@@ -40834,7 +40834,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="159" spans="1:31">
+    <row r="159" spans="1:31" ht="14.25" hidden="1">
       <c r="A159" s="65">
         <v>43891</v>
       </c>
@@ -40918,7 +40918,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="160" spans="1:31">
+    <row r="160" spans="1:31" ht="14.25" hidden="1">
       <c r="A160" s="65">
         <v>43891</v>
       </c>
@@ -41002,7 +41002,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="161" spans="1:31">
+    <row r="161" spans="1:31" ht="14.25" hidden="1">
       <c r="A161" s="65">
         <v>43891</v>
       </c>
@@ -41086,7 +41086,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:31">
+    <row r="162" spans="1:31" ht="14.25" hidden="1">
       <c r="A162" s="65">
         <v>43891</v>
       </c>
@@ -41170,7 +41170,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="163" spans="1:31">
+    <row r="163" spans="1:31" ht="14.25" hidden="1">
       <c r="A163" s="65">
         <v>43891</v>
       </c>
@@ -41254,7 +41254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:31">
+    <row r="164" spans="1:31" ht="14.25" hidden="1">
       <c r="A164" s="65">
         <v>43891</v>
       </c>
@@ -41338,7 +41338,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="165" spans="1:31">
+    <row r="165" spans="1:31" ht="14.25" hidden="1">
       <c r="A165" s="65">
         <v>43891</v>
       </c>
@@ -41422,7 +41422,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="166" spans="1:31">
+    <row r="166" spans="1:31" ht="14.25" hidden="1">
       <c r="A166" s="65">
         <v>43891</v>
       </c>
@@ -41506,7 +41506,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="167" spans="1:31">
+    <row r="167" spans="1:31" ht="14.25" hidden="1">
       <c r="A167" s="65">
         <v>43891</v>
       </c>
@@ -41590,7 +41590,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:31">
+    <row r="168" spans="1:31" ht="14.25" hidden="1">
       <c r="A168" s="65">
         <v>43891</v>
       </c>
@@ -41674,7 +41674,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="169" spans="1:31">
+    <row r="169" spans="1:31" ht="14.25" hidden="1">
       <c r="A169" s="65">
         <v>43891</v>
       </c>
@@ -41758,7 +41758,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="170" spans="1:31">
+    <row r="170" spans="1:31" ht="14.25" hidden="1">
       <c r="A170" s="65">
         <v>43891</v>
       </c>
@@ -41842,7 +41842,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="171" spans="1:31">
+    <row r="171" spans="1:31" ht="14.25" hidden="1">
       <c r="A171" s="65">
         <v>43891</v>
       </c>
@@ -41926,7 +41926,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:31">
+    <row r="172" spans="1:31" ht="14.25" hidden="1">
       <c r="A172" s="65">
         <v>43891</v>
       </c>
@@ -42010,7 +42010,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="173" spans="1:31">
+    <row r="173" spans="1:31" ht="14.25" hidden="1">
       <c r="A173" s="65">
         <v>43891</v>
       </c>
@@ -42094,7 +42094,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="174" spans="1:31">
+    <row r="174" spans="1:31" ht="14.25" hidden="1">
       <c r="A174" s="65">
         <v>43891</v>
       </c>
@@ -42178,7 +42178,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="175" spans="1:31">
+    <row r="175" spans="1:31" ht="14.25" hidden="1">
       <c r="A175" s="65">
         <v>43891</v>
       </c>
@@ -42262,7 +42262,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="176" spans="1:31">
+    <row r="176" spans="1:31" ht="14.25" hidden="1">
       <c r="A176" s="65">
         <v>43891</v>
       </c>
@@ -42346,7 +42346,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="177" spans="1:38">
+    <row r="177" spans="1:38" ht="14.25" hidden="1">
       <c r="A177" s="65">
         <v>43891</v>
       </c>
@@ -42431,7 +42431,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="178" spans="1:38">
+    <row r="178" spans="1:38" ht="14.25" hidden="1">
       <c r="A178" s="65">
         <v>43891</v>
       </c>
@@ -42517,7 +42517,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:38">
+    <row r="179" spans="1:38" ht="14.25" hidden="1">
       <c r="A179" s="65">
         <v>43891</v>
       </c>
@@ -42603,7 +42603,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:38">
+    <row r="180" spans="1:38" ht="14.25" hidden="1">
       <c r="A180" s="66">
         <v>43891</v>
       </c>
@@ -42694,7 +42694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:38">
+    <row r="181" spans="1:38" ht="14.25" hidden="1">
       <c r="A181" s="67">
         <v>43922</v>
       </c>
@@ -42797,7 +42797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:38">
+    <row r="182" spans="1:38" ht="14.25" hidden="1">
       <c r="A182" s="67">
         <v>43922</v>
       </c>
@@ -42904,7 +42904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:38">
+    <row r="183" spans="1:38" ht="14.25" hidden="1">
       <c r="A183" s="67">
         <v>43922</v>
       </c>
@@ -43007,7 +43007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:38">
+    <row r="184" spans="1:38" ht="14.25" hidden="1">
       <c r="A184" s="67">
         <v>43922</v>
       </c>
@@ -43110,7 +43110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:38">
+    <row r="185" spans="1:38" ht="14.25" hidden="1">
       <c r="A185" s="67">
         <v>43922</v>
       </c>
@@ -43213,7 +43213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:38">
+    <row r="186" spans="1:38" ht="14.25">
       <c r="A186" s="67">
         <v>43922</v>
       </c>
@@ -43295,8 +43295,8 @@
       <c r="AB186" s="69"/>
       <c r="AC186" s="69"/>
       <c r="AD186" s="69"/>
-      <c r="AE186" s="71" t="s">
-        <v>84</v>
+      <c r="AE186" s="10">
+        <v>0.42</v>
       </c>
       <c r="AF186" s="73">
         <f t="shared" si="28"/>
@@ -43316,7 +43316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:38">
+    <row r="187" spans="1:38" ht="14.25" hidden="1">
       <c r="A187" s="67">
         <v>43922</v>
       </c>
@@ -43419,7 +43419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:38">
+    <row r="188" spans="1:38" ht="14.25" hidden="1">
       <c r="A188" s="67">
         <v>43922</v>
       </c>
@@ -43522,7 +43522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:38">
+    <row r="189" spans="1:38" ht="14.25" hidden="1">
       <c r="A189" s="67">
         <v>43922</v>
       </c>
@@ -43625,7 +43625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:38">
+    <row r="190" spans="1:38" ht="14.25" hidden="1">
       <c r="A190" s="67">
         <v>43922</v>
       </c>
@@ -43728,7 +43728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:38">
+    <row r="191" spans="1:38" ht="14.25" hidden="1">
       <c r="A191" s="67">
         <v>43922</v>
       </c>
@@ -43831,7 +43831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:38">
+    <row r="192" spans="1:38" ht="14.25" hidden="1">
       <c r="A192" s="67">
         <v>43922</v>
       </c>
@@ -43934,7 +43934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:37">
+    <row r="193" spans="1:37" ht="14.25" hidden="1">
       <c r="A193" s="67">
         <v>43922</v>
       </c>
@@ -44037,7 +44037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:37">
+    <row r="194" spans="1:37" ht="14.25" hidden="1">
       <c r="A194" s="67">
         <v>43922</v>
       </c>
@@ -44140,7 +44140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:37">
+    <row r="195" spans="1:37" ht="14.25" hidden="1">
       <c r="A195" s="67">
         <v>43922</v>
       </c>
@@ -44243,7 +44243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:37">
+    <row r="196" spans="1:37" ht="14.25" hidden="1">
       <c r="A196" s="67">
         <v>43922</v>
       </c>
@@ -44346,7 +44346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:37">
+    <row r="197" spans="1:37" ht="14.25" hidden="1">
       <c r="A197" s="67">
         <v>43922</v>
       </c>
@@ -44449,7 +44449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:37">
+    <row r="198" spans="1:37" ht="14.25" hidden="1">
       <c r="A198" s="67">
         <v>43922</v>
       </c>
@@ -44552,7 +44552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:37">
+    <row r="199" spans="1:37" ht="14.25" hidden="1">
       <c r="A199" s="67">
         <v>43922</v>
       </c>
@@ -44655,7 +44655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:37">
+    <row r="200" spans="1:37" ht="14.25" hidden="1">
       <c r="A200" s="67">
         <v>43922</v>
       </c>
@@ -44758,7 +44758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:37">
+    <row r="201" spans="1:37" ht="14.25" hidden="1">
       <c r="A201" s="67">
         <v>43922</v>
       </c>
@@ -44861,7 +44861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:37">
+    <row r="202" spans="1:37" ht="14.25" hidden="1">
       <c r="A202" s="67">
         <v>43922</v>
       </c>
@@ -44964,7 +44964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:37">
+    <row r="203" spans="1:37" ht="14.25" hidden="1">
       <c r="A203" s="67">
         <v>43922</v>
       </c>
@@ -45067,7 +45067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:37">
+    <row r="204" spans="1:37" ht="14.25" hidden="1">
       <c r="A204" s="67">
         <v>43922</v>
       </c>
@@ -45170,7 +45170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:37">
+    <row r="205" spans="1:37" ht="14.25" hidden="1">
       <c r="A205" s="67">
         <v>43922</v>
       </c>
@@ -45273,7 +45273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:37">
+    <row r="206" spans="1:37" ht="14.25" hidden="1">
       <c r="A206" s="67">
         <v>43922</v>
       </c>
@@ -45376,7 +45376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:37">
+    <row r="207" spans="1:37" ht="14.25" hidden="1">
       <c r="A207" s="67">
         <v>43922</v>
       </c>
@@ -45479,7 +45479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:37">
+    <row r="208" spans="1:37" ht="14.25" hidden="1">
       <c r="A208" s="67">
         <v>43922</v>
       </c>
@@ -45582,7 +45582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:38">
+    <row r="209" spans="1:38" ht="14.25" hidden="1">
       <c r="A209" s="67">
         <v>43922</v>
       </c>
@@ -45685,7 +45685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:38">
+    <row r="210" spans="1:38" ht="14.25" hidden="1">
       <c r="A210" s="67">
         <v>43922</v>
       </c>
@@ -45788,7 +45788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:38">
+    <row r="211" spans="1:38" ht="14.25" hidden="1">
       <c r="A211" s="67">
         <v>43922</v>
       </c>
@@ -45891,7 +45891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:38">
+    <row r="212" spans="1:38" ht="14.25" hidden="1">
       <c r="A212" s="67">
         <v>43922</v>
       </c>
@@ -45994,7 +45994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:38">
+    <row r="213" spans="1:38" ht="14.25" hidden="1">
       <c r="A213" s="67">
         <v>43922</v>
       </c>
@@ -46097,7 +46097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:38">
+    <row r="214" spans="1:38" ht="14.25" hidden="1">
       <c r="A214" s="67">
         <v>43922</v>
       </c>
@@ -46200,7 +46200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:38">
+    <row r="215" spans="1:38" ht="14.25" hidden="1">
       <c r="A215" s="67">
         <v>43922</v>
       </c>
@@ -46303,7 +46303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:38">
+    <row r="216" spans="1:38" ht="14.25" hidden="1">
       <c r="A216" s="67">
         <v>43922</v>
       </c>
@@ -46406,7 +46406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:38">
+    <row r="217" spans="1:38" ht="14.25" hidden="1">
       <c r="A217" s="67">
         <v>43922</v>
       </c>
@@ -46509,7 +46509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:38">
+    <row r="218" spans="1:38" ht="14.25" hidden="1">
       <c r="A218" s="67">
         <v>43922</v>
       </c>
@@ -46612,7 +46612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:38">
+    <row r="219" spans="1:38" ht="14.25" hidden="1">
       <c r="A219" s="67">
         <v>43922</v>
       </c>
@@ -46721,7 +46721,7 @@
         <v>6.9121338909098995E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:38">
+    <row r="220" spans="1:38" ht="14.25" hidden="1">
       <c r="A220" s="67">
         <v>43922</v>
       </c>
@@ -46824,7 +46824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:38">
+    <row r="221" spans="1:38" ht="14.25" hidden="1">
       <c r="A221" s="67">
         <v>43922</v>
       </c>
@@ -46927,7 +46927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:38">
+    <row r="222" spans="1:38" ht="14.25" hidden="1">
       <c r="A222" s="67">
         <v>43922</v>
       </c>
@@ -47023,7 +47023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:38">
+    <row r="223" spans="1:38" ht="14.25" hidden="1">
       <c r="A223" s="67">
         <v>43922</v>
       </c>
@@ -47130,7 +47130,7 @@
         <v>-187767.14516129033</v>
       </c>
     </row>
-    <row r="224" spans="1:38">
+    <row r="224" spans="1:38" ht="14.25" hidden="1">
       <c r="A224" s="67">
         <v>43922</v>
       </c>
@@ -47236,7 +47236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:38">
+    <row r="225" spans="1:38" ht="14.25" hidden="1">
       <c r="A225" s="67">
         <v>43922</v>
       </c>
@@ -47354,7 +47354,7 @@
         <v>7.4469172931276262</v>
       </c>
     </row>
-    <row r="226" spans="1:38">
+    <row r="226" spans="1:38" ht="14.25" hidden="1">
       <c r="A226" s="67">
         <v>43922</v>
       </c>
@@ -47468,7 +47468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:38">
+    <row r="227" spans="1:38" ht="14.25" hidden="1">
       <c r="A227" s="67">
         <v>43922</v>
       </c>
@@ -47579,7 +47579,7 @@
         <v>68.772846715641208</v>
       </c>
     </row>
-    <row r="228" spans="1:38">
+    <row r="228" spans="1:38" ht="14.25" hidden="1">
       <c r="A228" s="67">
         <v>43922</v>
       </c>
@@ -47682,7 +47682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:38">
+    <row r="229" spans="1:38" ht="14.25" hidden="1">
       <c r="A229" s="67">
         <v>43922</v>
       </c>
@@ -47785,7 +47785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:38">
+    <row r="230" spans="1:38" ht="14.25" hidden="1">
       <c r="A230" s="67">
         <v>43922</v>
       </c>
@@ -47892,7 +47892,7 @@
         <v>-15.862394366197179</v>
       </c>
     </row>
-    <row r="231" spans="1:38">
+    <row r="231" spans="1:38" ht="14.25" hidden="1">
       <c r="A231" s="67">
         <v>43922</v>
       </c>
@@ -47999,7 +47999,7 @@
         <v>-0.1397183098591549</v>
       </c>
     </row>
-    <row r="232" spans="1:38">
+    <row r="232" spans="1:38" ht="14.25" hidden="1">
       <c r="A232" s="67">
         <v>43922</v>
       </c>
@@ -48091,7 +48091,7 @@
       <c r="AJ232" s="77"/>
       <c r="AK232" s="77"/>
     </row>
-    <row r="233" spans="1:38">
+    <row r="233" spans="1:38" ht="14.25" hidden="1">
       <c r="A233" s="67">
         <v>43922</v>
       </c>
@@ -48186,7 +48186,7 @@
       <c r="AJ233" s="77"/>
       <c r="AK233" s="77"/>
     </row>
-    <row r="234" spans="1:38">
+    <row r="234" spans="1:38" ht="14.25" hidden="1">
       <c r="A234" s="67">
         <v>43922</v>
       </c>
@@ -48277,7 +48277,7 @@
       <c r="AJ234" s="77"/>
       <c r="AK234" s="77"/>
     </row>
-    <row r="235" spans="1:38">
+    <row r="235" spans="1:38" ht="14.25" hidden="1">
       <c r="A235" s="67">
         <v>43922</v>
       </c>
@@ -48365,7 +48365,7 @@
       <c r="AJ235" s="77"/>
       <c r="AK235" s="77"/>
     </row>
-    <row r="236" spans="1:38">
+    <row r="236" spans="1:38" ht="14.25" hidden="1">
       <c r="A236" s="67">
         <v>43922</v>
       </c>
@@ -48456,7 +48456,7 @@
       <c r="AJ236" s="87"/>
       <c r="AK236" s="87"/>
     </row>
-    <row r="237" spans="1:38">
+    <row r="237" spans="1:38" ht="14.25" hidden="1">
       <c r="A237" s="67">
         <v>43922</v>
       </c>
@@ -48548,7 +48548,7 @@
       <c r="AJ237" s="77"/>
       <c r="AK237" s="77"/>
     </row>
-    <row r="238" spans="1:38">
+    <row r="238" spans="1:38" ht="14.25" hidden="1">
       <c r="A238" s="90" t="s">
         <v>309</v>
       </c>
@@ -48660,7 +48660,7 @@
         <v>-1393439.1774193547</v>
       </c>
     </row>
-    <row r="239" spans="1:38">
+    <row r="239" spans="1:38" ht="14.25" hidden="1">
       <c r="A239" s="90" t="s">
         <v>309</v>
       </c>
@@ -48770,7 +48770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:38">
+    <row r="240" spans="1:38" ht="14.25" hidden="1">
       <c r="A240" s="90" t="s">
         <v>309</v>
       </c>
@@ -48883,7 +48883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:37">
+    <row r="241" spans="1:37" ht="14.25" hidden="1">
       <c r="A241" s="90" t="s">
         <v>309</v>
       </c>
@@ -48987,7 +48987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:37">
+    <row r="242" spans="1:37" ht="14.25" hidden="1">
       <c r="A242" s="90" t="s">
         <v>309</v>
       </c>
@@ -49091,7 +49091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:37">
+    <row r="243" spans="1:37" ht="14.25" hidden="1">
       <c r="A243" s="90" t="s">
         <v>309</v>
       </c>
@@ -49195,7 +49195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:37">
+    <row r="244" spans="1:37" ht="14.25" hidden="1">
       <c r="A244" s="90" t="s">
         <v>309</v>
       </c>
@@ -49299,7 +49299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:37">
+    <row r="245" spans="1:37" ht="14.25" hidden="1">
       <c r="A245" s="90" t="s">
         <v>309</v>
       </c>
@@ -49403,7 +49403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:37">
+    <row r="246" spans="1:37" ht="14.25">
       <c r="A246" s="90" t="s">
         <v>309</v>
       </c>
@@ -49483,8 +49483,8 @@
       <c r="AB246" s="79"/>
       <c r="AC246" s="79"/>
       <c r="AD246" s="79"/>
-      <c r="AE246" s="96">
-        <v>0</v>
+      <c r="AE246" s="10">
+        <v>0.42</v>
       </c>
       <c r="AF246" s="94">
         <f t="shared" si="45"/>
@@ -49507,7 +49507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:37">
+    <row r="247" spans="1:37" ht="14.25" hidden="1">
       <c r="A247" s="90" t="s">
         <v>309</v>
       </c>
@@ -49611,7 +49611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:37">
+    <row r="248" spans="1:37" ht="14.25" hidden="1">
       <c r="A248" s="90" t="s">
         <v>309</v>
       </c>
@@ -49715,7 +49715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:37">
+    <row r="249" spans="1:37" ht="14.25" hidden="1">
       <c r="A249" s="90" t="s">
         <v>309</v>
       </c>
@@ -49819,7 +49819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:37">
+    <row r="250" spans="1:37" ht="14.25" hidden="1">
       <c r="A250" s="90" t="s">
         <v>309</v>
       </c>
@@ -49923,7 +49923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:37">
+    <row r="251" spans="1:37" ht="14.25" hidden="1">
       <c r="A251" s="90" t="s">
         <v>309</v>
       </c>
@@ -50027,7 +50027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:37">
+    <row r="252" spans="1:37" ht="14.25" hidden="1">
       <c r="A252" s="90" t="s">
         <v>309</v>
       </c>
@@ -50131,7 +50131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:37">
+    <row r="253" spans="1:37" ht="14.25" hidden="1">
       <c r="A253" s="90" t="s">
         <v>309</v>
       </c>
@@ -50235,7 +50235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:37">
+    <row r="254" spans="1:37" ht="14.25" hidden="1">
       <c r="A254" s="90" t="s">
         <v>309</v>
       </c>
@@ -50339,7 +50339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:37">
+    <row r="255" spans="1:37" ht="14.25" hidden="1">
       <c r="A255" s="90" t="s">
         <v>309</v>
       </c>
@@ -50443,7 +50443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:37">
+    <row r="256" spans="1:37" ht="14.25" hidden="1">
       <c r="A256" s="90" t="s">
         <v>309</v>
       </c>
@@ -50547,7 +50547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:38">
+    <row r="257" spans="1:38" ht="14.25" hidden="1">
       <c r="A257" s="90" t="s">
         <v>309</v>
       </c>
@@ -50651,7 +50651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:38">
+    <row r="258" spans="1:38" ht="14.25" hidden="1">
       <c r="A258" s="90" t="s">
         <v>309</v>
       </c>
@@ -50755,7 +50755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:38">
+    <row r="259" spans="1:38" ht="14.25" hidden="1">
       <c r="A259" s="90" t="s">
         <v>309</v>
       </c>
@@ -50859,7 +50859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:38">
+    <row r="260" spans="1:38" ht="14.25" hidden="1">
       <c r="A260" s="90" t="s">
         <v>309</v>
       </c>
@@ -50963,7 +50963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:38">
+    <row r="261" spans="1:38" ht="14.25" hidden="1">
       <c r="A261" s="90" t="s">
         <v>309</v>
       </c>
@@ -51067,7 +51067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:38">
+    <row r="262" spans="1:38" ht="14.25" hidden="1">
       <c r="A262" s="90" t="s">
         <v>309</v>
       </c>
@@ -51175,7 +51175,7 @@
         <v>0.15837499999906868</v>
       </c>
     </row>
-    <row r="263" spans="1:38">
+    <row r="263" spans="1:38" ht="14.25" hidden="1">
       <c r="A263" s="90" t="s">
         <v>309</v>
       </c>
@@ -51279,7 +51279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:38">
+    <row r="264" spans="1:38" ht="14.25" hidden="1">
       <c r="A264" s="90" t="s">
         <v>309</v>
       </c>
@@ -51383,7 +51383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:38">
+    <row r="265" spans="1:38" ht="14.25" hidden="1">
       <c r="A265" s="90" t="s">
         <v>309</v>
       </c>
@@ -51487,7 +51487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:38">
+    <row r="266" spans="1:38" ht="14.25" hidden="1">
       <c r="A266" s="90" t="s">
         <v>309</v>
       </c>
@@ -51591,7 +51591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:38">
+    <row r="267" spans="1:38" ht="14.25" hidden="1">
       <c r="A267" s="90" t="s">
         <v>309</v>
       </c>
@@ -51695,7 +51695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:38">
+    <row r="268" spans="1:38" ht="14.25" hidden="1">
       <c r="A268" s="90" t="s">
         <v>309</v>
       </c>
@@ -51799,7 +51799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:38">
+    <row r="269" spans="1:38" ht="14.25" hidden="1">
       <c r="A269" s="90" t="s">
         <v>309</v>
       </c>
@@ -51903,7 +51903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:38">
+    <row r="270" spans="1:38" ht="14.25" hidden="1">
       <c r="A270" s="90" t="s">
         <v>309</v>
       </c>
@@ -52007,7 +52007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:38">
+    <row r="271" spans="1:38" ht="14.25" hidden="1">
       <c r="A271" s="90" t="s">
         <v>309</v>
       </c>
@@ -52111,7 +52111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:38">
+    <row r="272" spans="1:38" ht="14.25" hidden="1">
       <c r="A272" s="90" t="s">
         <v>309</v>
       </c>
@@ -52215,7 +52215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:38">
+    <row r="273" spans="1:38" ht="14.25" hidden="1">
       <c r="A273" s="90" t="s">
         <v>309</v>
       </c>
@@ -52319,7 +52319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:38">
+    <row r="274" spans="1:38" ht="14.25" hidden="1">
       <c r="A274" s="90" t="s">
         <v>309</v>
       </c>
@@ -52423,7 +52423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:38">
+    <row r="275" spans="1:38" ht="14.25" hidden="1">
       <c r="A275" s="90" t="s">
         <v>309</v>
       </c>
@@ -52527,7 +52527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:38">
+    <row r="276" spans="1:38" ht="14.25" hidden="1">
       <c r="A276" s="90" t="s">
         <v>309</v>
       </c>
@@ -52631,7 +52631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:38">
+    <row r="277" spans="1:38" ht="14.25" hidden="1">
       <c r="A277" s="90" t="s">
         <v>309</v>
       </c>
@@ -52735,7 +52735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:38">
+    <row r="278" spans="1:38" ht="14.25" hidden="1">
       <c r="A278" s="90" t="s">
         <v>309</v>
       </c>
@@ -52839,7 +52839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:38">
+    <row r="279" spans="1:38" ht="14.25" hidden="1">
       <c r="A279" s="90" t="s">
         <v>309</v>
       </c>
@@ -52947,7 +52947,7 @@
         <v>-1.4058577407013217E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:38">
+    <row r="280" spans="1:38" ht="14.25" hidden="1">
       <c r="A280" s="90" t="s">
         <v>309</v>
       </c>
@@ -53051,7 +53051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:38">
+    <row r="281" spans="1:38" ht="14.25" hidden="1">
       <c r="A281" s="90" t="s">
         <v>309</v>
       </c>
@@ -53155,7 +53155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:38">
+    <row r="282" spans="1:38" ht="14.25" hidden="1">
       <c r="A282" s="90" t="s">
         <v>309</v>
       </c>
@@ -53265,7 +53265,7 @@
         <v>0.27879699248296674</v>
       </c>
     </row>
-    <row r="283" spans="1:38">
+    <row r="283" spans="1:38" ht="14.25" hidden="1">
       <c r="A283" s="90" t="s">
         <v>309</v>
       </c>
@@ -53369,7 +53369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:38">
+    <row r="284" spans="1:38" ht="14.25" hidden="1">
       <c r="A284" s="90" t="s">
         <v>309</v>
       </c>
@@ -53473,7 +53473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:38">
+    <row r="285" spans="1:38" ht="14.25" hidden="1">
       <c r="A285" s="90" t="s">
         <v>309</v>
       </c>
@@ -53581,7 +53581,7 @@
         <v>-8.8584507042253513</v>
       </c>
     </row>
-    <row r="286" spans="1:38">
+    <row r="286" spans="1:38" ht="14.25" hidden="1">
       <c r="A286" s="90" t="s">
         <v>309</v>
       </c>
@@ -53685,7 +53685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:38">
+    <row r="287" spans="1:38" ht="14.25" hidden="1">
       <c r="A287" s="90" t="s">
         <v>309</v>
       </c>
@@ -53795,7 +53795,7 @@
         <v>45.029999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:38">
+    <row r="288" spans="1:38" ht="14.25" hidden="1">
       <c r="A288" s="90" t="s">
         <v>309</v>
       </c>
@@ -53894,7 +53894,7 @@
       <c r="AJ288" s="110"/>
       <c r="AK288" s="110"/>
     </row>
-    <row r="289" spans="1:38">
+    <row r="289" spans="1:38" ht="14.25" hidden="1">
       <c r="A289" s="90" t="s">
         <v>309</v>
       </c>
@@ -53991,7 +53991,7 @@
       <c r="AJ289" s="110"/>
       <c r="AK289" s="110"/>
     </row>
-    <row r="290" spans="1:38">
+    <row r="290" spans="1:38" ht="14.25" hidden="1">
       <c r="A290" s="90" t="s">
         <v>309</v>
       </c>
@@ -54087,7 +54087,7 @@
       <c r="AJ290" s="110"/>
       <c r="AK290" s="110"/>
     </row>
-    <row r="291" spans="1:38" ht="15">
+    <row r="291" spans="1:38" ht="15.75" hidden="1">
       <c r="A291" s="90" t="s">
         <v>309</v>
       </c>
@@ -54188,7 +54188,7 @@
       <c r="AJ291" s="119"/>
       <c r="AK291" s="119"/>
     </row>
-    <row r="292" spans="1:38" ht="15">
+    <row r="292" spans="1:38" ht="15.75" hidden="1">
       <c r="A292" s="90" t="s">
         <v>309</v>
       </c>
@@ -54281,7 +54281,7 @@
       <c r="AJ292" s="121"/>
       <c r="AK292" s="121"/>
     </row>
-    <row r="293" spans="1:38">
+    <row r="293" spans="1:38" ht="14.25" hidden="1">
       <c r="A293" s="90" t="s">
         <v>309</v>
       </c>
@@ -54385,7 +54385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:38">
+    <row r="294" spans="1:38" ht="14.25" hidden="1">
       <c r="A294" s="90" t="s">
         <v>309</v>
       </c>
@@ -54489,7 +54489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:38">
+    <row r="295" spans="1:38" ht="14.25" hidden="1">
       <c r="A295" s="90" t="s">
         <v>309</v>
       </c>
@@ -54593,7 +54593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:38">
+    <row r="296" spans="1:38" ht="14.25" hidden="1">
       <c r="A296" s="90" t="s">
         <v>309</v>
       </c>
@@ -54697,7 +54697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:38">
+    <row r="297" spans="1:38" ht="14.25" hidden="1">
       <c r="A297" s="90" t="s">
         <v>309</v>
       </c>
@@ -54801,7 +54801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:38">
+    <row r="298" spans="1:38" ht="14.25" hidden="1">
       <c r="A298" s="90" t="s">
         <v>332</v>
       </c>
@@ -54913,7 +54913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:38">
+    <row r="299" spans="1:38" ht="14.25" hidden="1">
       <c r="A299" s="90" t="s">
         <v>332</v>
       </c>
@@ -55025,7 +55025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:38">
+    <row r="300" spans="1:38" ht="14.25" hidden="1">
       <c r="A300" s="90" t="s">
         <v>332</v>
       </c>
@@ -55140,7 +55140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:38">
+    <row r="301" spans="1:38" ht="14.25" hidden="1">
       <c r="A301" s="90" t="s">
         <v>332</v>
       </c>
@@ -55250,7 +55250,7 @@
         <v>-3015.3909677419324</v>
       </c>
     </row>
-    <row r="302" spans="1:38">
+    <row r="302" spans="1:38" ht="14.25" hidden="1">
       <c r="A302" s="90" t="s">
         <v>332</v>
       </c>
@@ -55359,7 +55359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:38">
+    <row r="303" spans="1:38" ht="14.25" hidden="1">
       <c r="A303" s="90" t="s">
         <v>332</v>
       </c>
@@ -55465,7 +55465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:38">
+    <row r="304" spans="1:38" ht="14.25" hidden="1">
       <c r="A304" s="90" t="s">
         <v>332</v>
       </c>
@@ -55575,7 +55575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:38">
+    <row r="305" spans="1:38" ht="14.25" hidden="1">
       <c r="A305" s="90" t="s">
         <v>332</v>
       </c>
@@ -55681,7 +55681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:38">
+    <row r="306" spans="1:38" ht="14.25" hidden="1">
       <c r="A306" s="90" t="s">
         <v>332</v>
       </c>
@@ -55787,7 +55787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:38">
+    <row r="307" spans="1:38" ht="14.25" hidden="1">
       <c r="A307" s="90" t="s">
         <v>332</v>
       </c>
@@ -55893,7 +55893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:38">
+    <row r="308" spans="1:38" ht="14.25">
       <c r="A308" s="90" t="s">
         <v>332</v>
       </c>
@@ -55952,7 +55952,7 @@
       </c>
       <c r="V308" s="94">
         <f t="shared" si="76"/>
-        <v>61913.711864406789</v>
+        <v>64839.134750000005</v>
       </c>
       <c r="W308" s="95"/>
       <c r="X308" s="22">
@@ -55961,7 +55961,7 @@
       </c>
       <c r="Y308" s="103">
         <f t="shared" si="79"/>
-        <v>11144.468135593219</v>
+        <v>8219.0452500000029</v>
       </c>
       <c r="Z308" s="94">
         <f t="shared" si="71"/>
@@ -55973,12 +55973,12 @@
       <c r="AB308" s="95"/>
       <c r="AC308" s="110"/>
       <c r="AD308" s="110"/>
-      <c r="AE308" s="92">
-        <v>0</v>
+      <c r="AE308" s="10">
+        <v>0.42</v>
       </c>
       <c r="AF308" s="94">
         <f t="shared" si="72"/>
-        <v>103744.43000000001</v>
+        <v>73059.457746478889</v>
       </c>
       <c r="AG308" s="95">
         <v>0</v>
@@ -55996,14 +55996,14 @@
       </c>
       <c r="AK308" s="94">
         <f t="shared" si="80"/>
-        <v>87919.008474576287</v>
+        <v>64840.26875000001</v>
       </c>
       <c r="AL308" s="57">
         <f>AK308-V308</f>
-        <v>26005.296610169498</v>
+        <v>1.1340000000054715</v>
       </c>
     </row>
-    <row r="309" spans="1:38">
+    <row r="309" spans="1:38" ht="14.25" hidden="1">
       <c r="A309" s="90" t="s">
         <v>332</v>
       </c>
@@ -56109,7 +56109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:38">
+    <row r="310" spans="1:38" ht="14.25" hidden="1">
       <c r="A310" s="90" t="s">
         <v>332</v>
       </c>
@@ -56215,7 +56215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:38">
+    <row r="311" spans="1:38" ht="14.25" hidden="1">
       <c r="A311" s="90" t="s">
         <v>332</v>
       </c>
@@ -56321,7 +56321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:38">
+    <row r="312" spans="1:38" ht="14.25" hidden="1">
       <c r="A312" s="90" t="s">
         <v>332</v>
       </c>
@@ -56427,7 +56427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:38">
+    <row r="313" spans="1:38" ht="14.25" hidden="1">
       <c r="A313" s="90" t="s">
         <v>332</v>
       </c>
@@ -56533,7 +56533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:38">
+    <row r="314" spans="1:38" ht="14.25" hidden="1">
       <c r="A314" s="90" t="s">
         <v>332</v>
       </c>
@@ -56639,7 +56639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:38">
+    <row r="315" spans="1:38" ht="14.25" hidden="1">
       <c r="A315" s="90" t="s">
         <v>332</v>
       </c>
@@ -56745,7 +56745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:38">
+    <row r="316" spans="1:38" ht="14.25" hidden="1">
       <c r="A316" s="90" t="s">
         <v>332</v>
       </c>
@@ -56851,7 +56851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:38">
+    <row r="317" spans="1:38" ht="14.25" hidden="1">
       <c r="A317" s="90" t="s">
         <v>332</v>
       </c>
@@ -56957,7 +56957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:38">
+    <row r="318" spans="1:38" ht="14.25" hidden="1">
       <c r="A318" s="90" t="s">
         <v>332</v>
       </c>
@@ -57063,7 +57063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:38">
+    <row r="319" spans="1:38" ht="14.25" hidden="1">
       <c r="A319" s="90" t="s">
         <v>332</v>
       </c>
@@ -57169,7 +57169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:38">
+    <row r="320" spans="1:38" ht="14.25" hidden="1">
       <c r="A320" s="90" t="s">
         <v>332</v>
       </c>
@@ -57275,7 +57275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:37">
+    <row r="321" spans="1:37" ht="14.25" hidden="1">
       <c r="A321" s="90" t="s">
         <v>332</v>
       </c>
@@ -57381,7 +57381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:37">
+    <row r="322" spans="1:37" ht="14.25" hidden="1">
       <c r="A322" s="90" t="s">
         <v>332</v>
       </c>
@@ -57487,7 +57487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:37">
+    <row r="323" spans="1:37" ht="14.25" hidden="1">
       <c r="A323" s="90" t="s">
         <v>332</v>
       </c>
@@ -57593,7 +57593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:37">
+    <row r="324" spans="1:37" ht="14.25" hidden="1">
       <c r="A324" s="90" t="s">
         <v>332</v>
       </c>
@@ -57699,7 +57699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:37">
+    <row r="325" spans="1:37" ht="14.25" hidden="1">
       <c r="A325" s="90" t="s">
         <v>332</v>
       </c>
@@ -57805,7 +57805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:37">
+    <row r="326" spans="1:37" ht="14.25" hidden="1">
       <c r="A326" s="90" t="s">
         <v>332</v>
       </c>
@@ -57911,7 +57911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:37">
+    <row r="327" spans="1:37" ht="14.25" hidden="1">
       <c r="A327" s="90" t="s">
         <v>332</v>
       </c>
@@ -58017,7 +58017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:37">
+    <row r="328" spans="1:37" ht="14.25" hidden="1">
       <c r="A328" s="90" t="s">
         <v>332</v>
       </c>
@@ -58123,7 +58123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:37">
+    <row r="329" spans="1:37" ht="14.25" hidden="1">
       <c r="A329" s="90" t="s">
         <v>332</v>
       </c>
@@ -58229,7 +58229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:37">
+    <row r="330" spans="1:37" ht="14.25" hidden="1">
       <c r="A330" s="90" t="s">
         <v>332</v>
       </c>
@@ -58335,7 +58335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:37">
+    <row r="331" spans="1:37" ht="14.25" hidden="1">
       <c r="A331" s="90" t="s">
         <v>332</v>
       </c>
@@ -58441,7 +58441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:37">
+    <row r="332" spans="1:37" ht="14.25" hidden="1">
       <c r="A332" s="90" t="s">
         <v>332</v>
       </c>
@@ -58547,7 +58547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:37">
+    <row r="333" spans="1:37" ht="14.25" hidden="1">
       <c r="A333" s="90" t="s">
         <v>332</v>
       </c>
@@ -58653,7 +58653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:37">
+    <row r="334" spans="1:37" ht="14.25" hidden="1">
       <c r="A334" s="90" t="s">
         <v>332</v>
       </c>
@@ -58759,7 +58759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:37">
+    <row r="335" spans="1:37" ht="14.25" hidden="1">
       <c r="A335" s="90" t="s">
         <v>332</v>
       </c>
@@ -58865,7 +58865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:37">
+    <row r="336" spans="1:37" ht="14.25" hidden="1">
       <c r="A336" s="90" t="s">
         <v>332</v>
       </c>
@@ -58971,7 +58971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:38">
+    <row r="337" spans="1:38" ht="14.25" hidden="1">
       <c r="A337" s="90" t="s">
         <v>332</v>
       </c>
@@ -59077,7 +59077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:38">
+    <row r="338" spans="1:38" ht="14.25" hidden="1">
       <c r="A338" s="90" t="s">
         <v>332</v>
       </c>
@@ -59183,7 +59183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:38">
+    <row r="339" spans="1:38" ht="14.25" hidden="1">
       <c r="A339" s="90" t="s">
         <v>332</v>
       </c>
@@ -59289,7 +59289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:38">
+    <row r="340" spans="1:38" ht="14.25" hidden="1">
       <c r="A340" s="90" t="s">
         <v>332</v>
       </c>
@@ -59399,7 +59399,7 @@
         <v>2.2426778241424472E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:38">
+    <row r="341" spans="1:38" ht="14.25" hidden="1">
       <c r="A341" s="90" t="s">
         <v>332</v>
       </c>
@@ -59505,7 +59505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:38">
+    <row r="342" spans="1:38" ht="14.25" hidden="1">
       <c r="A342" s="90" t="s">
         <v>332</v>
       </c>
@@ -59611,7 +59611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:38">
+    <row r="343" spans="1:38" ht="14.25" hidden="1">
       <c r="A343" s="90" t="s">
         <v>332</v>
       </c>
@@ -59721,7 +59721,7 @@
         <v>5285.372932336295</v>
       </c>
     </row>
-    <row r="344" spans="1:38">
+    <row r="344" spans="1:38" ht="14.25" hidden="1">
       <c r="A344" s="90" t="s">
         <v>332</v>
       </c>
@@ -59827,7 +59827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:38">
+    <row r="345" spans="1:38" ht="14.25" hidden="1">
       <c r="A345" s="90" t="s">
         <v>332</v>
       </c>
@@ -59933,7 +59933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:38">
+    <row r="346" spans="1:38" ht="14.25" hidden="1">
       <c r="A346" s="90" t="s">
         <v>332</v>
       </c>
@@ -60043,7 +60043,7 @@
         <v>-8.3792957746478862</v>
       </c>
     </row>
-    <row r="347" spans="1:38">
+    <row r="347" spans="1:38" ht="14.25" hidden="1">
       <c r="A347" s="90" t="s">
         <v>332</v>
       </c>
@@ -60149,7 +60149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:38">
+    <row r="348" spans="1:38" ht="14.25" hidden="1">
       <c r="A348" s="90" t="s">
         <v>332</v>
       </c>
@@ -60255,7 +60255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:38">
+    <row r="349" spans="1:38" ht="14.25" hidden="1">
       <c r="A349" s="90" t="s">
         <v>332</v>
       </c>
@@ -60361,7 +60361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:38">
+    <row r="350" spans="1:38" ht="14.25" hidden="1">
       <c r="A350" s="90" t="s">
         <v>332</v>
       </c>
@@ -60467,7 +60467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:38">
+    <row r="351" spans="1:38" ht="14.25" hidden="1">
       <c r="A351" s="90" t="s">
         <v>332</v>
       </c>
@@ -60573,7 +60573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:38">
+    <row r="352" spans="1:38" ht="14.25" hidden="1">
       <c r="A352" s="90" t="s">
         <v>332</v>
       </c>
@@ -60679,7 +60679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:38">
+    <row r="353" spans="1:38" ht="14.25" hidden="1">
       <c r="A353" s="90" t="s">
         <v>332</v>
       </c>
@@ -60774,7 +60774,7 @@
       <c r="AJ353" s="104"/>
       <c r="AK353" s="104"/>
     </row>
-    <row r="354" spans="1:38">
+    <row r="354" spans="1:38" ht="14.25" hidden="1">
       <c r="A354" s="90" t="s">
         <v>332</v>
       </c>
@@ -60871,7 +60871,7 @@
       <c r="AJ354" s="95"/>
       <c r="AK354" s="95"/>
     </row>
-    <row r="355" spans="1:38">
+    <row r="355" spans="1:38" ht="14.25" hidden="1">
       <c r="A355" s="90" t="s">
         <v>332</v>
       </c>
@@ -60968,7 +60968,7 @@
       <c r="AJ355" s="95"/>
       <c r="AK355" s="95"/>
     </row>
-    <row r="356" spans="1:38">
+    <row r="356" spans="1:38" ht="14.25" hidden="1">
       <c r="A356" s="90" t="s">
         <v>332</v>
       </c>
@@ -61063,7 +61063,7 @@
       <c r="AJ356" s="110"/>
       <c r="AK356" s="110"/>
     </row>
-    <row r="357" spans="1:38">
+    <row r="357" spans="1:38" ht="14.25" hidden="1">
       <c r="A357" s="90" t="s">
         <v>332</v>
       </c>
@@ -61164,7 +61164,7 @@
       <c r="AJ357" s="110"/>
       <c r="AK357" s="110"/>
     </row>
-    <row r="358" spans="1:38">
+    <row r="358" spans="1:38" ht="14.25" hidden="1">
       <c r="A358" s="90" t="s">
         <v>332</v>
       </c>
@@ -61259,7 +61259,7 @@
       <c r="AJ358" s="103"/>
       <c r="AK358" s="103"/>
     </row>
-    <row r="359" spans="1:38">
+    <row r="359" spans="1:38" ht="14.25" hidden="1">
       <c r="A359" s="90" t="s">
         <v>332</v>
       </c>
@@ -61340,7 +61340,7 @@
       <c r="AJ359" s="110"/>
       <c r="AK359" s="110"/>
     </row>
-    <row r="360" spans="1:38">
+    <row r="360" spans="1:38" ht="14.25" hidden="1">
       <c r="A360" s="90" t="s">
         <v>332</v>
       </c>
@@ -61419,7 +61419,7 @@
       <c r="AJ360" s="110"/>
       <c r="AK360" s="110"/>
     </row>
-    <row r="361" spans="1:38">
+    <row r="361" spans="1:38" ht="14.25" hidden="1">
       <c r="A361" s="90" t="s">
         <v>332</v>
       </c>
@@ -61498,7 +61498,7 @@
       <c r="AJ361" s="110"/>
       <c r="AK361" s="110"/>
     </row>
-    <row r="362" spans="1:38">
+    <row r="362" spans="1:38" ht="14.25" hidden="1">
       <c r="A362" s="90" t="s">
         <v>332</v>
       </c>
@@ -61577,7 +61577,7 @@
       <c r="AJ362" s="110"/>
       <c r="AK362" s="110"/>
     </row>
-    <row r="363" spans="1:38">
+    <row r="363" spans="1:38" ht="14.25" hidden="1">
       <c r="A363" s="90" t="s">
         <v>332</v>
       </c>
@@ -61656,7 +61656,7 @@
       <c r="AJ363" s="110"/>
       <c r="AK363" s="110"/>
     </row>
-    <row r="364" spans="1:38">
+    <row r="364" spans="1:38" ht="14.25" hidden="1">
       <c r="A364" s="90" t="s">
         <v>332</v>
       </c>
@@ -61758,7 +61758,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL1"/>
+  <autoFilter ref="A1:AL364">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="事业4部"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="北京多彩-广州四三九九信息科技有限公司"/>
+        <filter val="北京多彩互动广告有限公司-广州四三九九信息科技有限公司01"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="Q126">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
@@ -61805,31 +61817,31 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="5.81640625" style="133" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" style="133" customWidth="1"/>
-    <col min="4" max="4" width="25.81640625" style="133" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="133" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="133" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="133" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="133" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="158" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="133" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" style="159" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.08984375" style="133" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="159" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="133" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="133" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" style="159" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.36328125" style="133" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="159" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.375" style="133" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="133" customWidth="1"/>
     <col min="14" max="14" width="8" style="133" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.453125" style="159" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1796875" style="159" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.90625" style="133" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.453125" style="133" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.36328125" style="133" customWidth="1"/>
+    <col min="15" max="15" width="15.5" style="159" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="159" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.875" style="133" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5" style="133" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.375" style="133" customWidth="1"/>
     <col min="21" max="21" width="8" style="133" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1">
+    <row r="1" spans="1:21" ht="17.25" thickBot="1">
       <c r="A1" s="129" t="s">
         <v>8</v>
       </c>
@@ -62065,20 +62077,20 @@
       </c>
       <c r="O4" s="144">
         <f>SUMIFS(客户表!V:V,客户表!I:I,A4,客户表!A:A,E4,客户表!M:M,F4)+SUMIFS(客户表!W:W,客户表!I:I,A4,客户表!A:A,E4,客户表!M:M,F4)</f>
-        <v>3043.805084745763</v>
+        <v>3187.624875</v>
       </c>
       <c r="P4" s="144"/>
       <c r="Q4" s="146">
         <f>(O4-G4+J4)/1.06</f>
-        <v>-233.0738761707278</v>
+        <v>-97.394828761070286</v>
       </c>
       <c r="R4" s="146">
         <f t="shared" si="1"/>
-        <v>-233.0738761707278</v>
+        <v>-97.394828761070286</v>
       </c>
       <c r="S4" s="141">
         <f t="shared" si="2"/>
-        <v>-7.6573193644623783E-2</v>
+        <v>-3.0554043396047437E-2</v>
       </c>
       <c r="T4" s="142"/>
       <c r="U4" s="142" t="s">
@@ -64159,20 +64171,20 @@
       </c>
       <c r="O37" s="127">
         <f>SUMIFS(客户表!V:V,客户表!I:I,媒体表!A37,客户表!A:A,媒体表!E37,客户表!M:M,媒体表!F37)+SUMIFS(客户表!W:W,客户表!I:I,媒体表!A37,客户表!A:A,媒体表!E37,客户表!M:M,媒体表!F37)+SUMIFS(客户表!AL:AL,客户表!I:I,媒体表!A37,客户表!A:A,媒体表!E37,客户表!M:M,媒体表!F37)</f>
-        <v>338903.06750683434</v>
+        <v>315824.3277822581</v>
       </c>
       <c r="P37" s="125"/>
       <c r="Q37" s="146">
         <f t="shared" si="4"/>
-        <v>222481.4330253154</v>
+        <v>200709.03705873404</v>
       </c>
       <c r="R37" s="146">
         <f t="shared" si="1"/>
-        <v>222481.4330253154</v>
+        <v>200709.03705873404</v>
       </c>
       <c r="S37" s="141">
         <f t="shared" si="2"/>
-        <v>0.65647512329120139</v>
+        <v>0.63550847544939881</v>
       </c>
       <c r="T37" s="125"/>
       <c r="U37" s="125" t="s">

--- a/2020年1-6月金源消耗表（财务运营共享版）.xlsx
+++ b/2020年1-6月金源消耗表（财务运营共享版）.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23265" windowHeight="12585" tabRatio="792"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23270" windowHeight="12590" tabRatio="792"/>
   </bookViews>
   <sheets>
     <sheet name="客户表" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4984" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4984" uniqueCount="366">
   <si>
     <t>周期</t>
   </si>
@@ -1341,6 +1341,10 @@
     <t>CPD</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>返货</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -27462,51 +27466,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:AL364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T368" sqref="T368"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.875" customWidth="1"/>
+    <col min="11" max="11" width="25.90625" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="6.875" customWidth="1"/>
+    <col min="13" max="13" width="6.90625" customWidth="1"/>
     <col min="14" max="16" width="9" customWidth="1"/>
-    <col min="17" max="17" width="6.875" customWidth="1"/>
+    <col min="17" max="17" width="6.90625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="20" width="14.125" customWidth="1"/>
+    <col min="19" max="20" width="14.08984375" customWidth="1"/>
     <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="14.08984375" customWidth="1"/>
     <col min="23" max="23" width="13" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="16.625" customWidth="1"/>
-    <col min="26" max="26" width="13.375" customWidth="1"/>
-    <col min="28" max="28" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.125" customWidth="1"/>
-    <col min="33" max="33" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5" customWidth="1"/>
+    <col min="25" max="25" width="16.6328125" customWidth="1"/>
+    <col min="26" max="26" width="13.36328125" customWidth="1"/>
+    <col min="28" max="28" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.08984375" customWidth="1"/>
+    <col min="33" max="33" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.453125" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.90625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="28.5">
+    <row r="1" spans="1:38" ht="26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27622,7 +27626,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="14.25" hidden="1">
+    <row r="2" spans="1:38">
       <c r="A2" s="56">
         <v>43831</v>
       </c>
@@ -27708,7 +27712,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="14.25" hidden="1">
+    <row r="3" spans="1:38">
       <c r="A3" s="56">
         <v>43831</v>
       </c>
@@ -27791,7 +27795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="14.25" hidden="1">
+    <row r="4" spans="1:38">
       <c r="A4" s="56">
         <v>43831</v>
       </c>
@@ -27879,7 +27883,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="14.25" hidden="1">
+    <row r="5" spans="1:38">
       <c r="A5" s="56">
         <v>43831</v>
       </c>
@@ -27963,7 +27967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="14.25" hidden="1">
+    <row r="6" spans="1:38">
       <c r="A6" s="56">
         <v>43831</v>
       </c>
@@ -28047,7 +28051,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="14.25" hidden="1">
+    <row r="7" spans="1:38">
       <c r="A7" s="56">
         <v>43831</v>
       </c>
@@ -28131,7 +28135,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14.25" hidden="1">
+    <row r="8" spans="1:38">
       <c r="A8" s="56">
         <v>43831</v>
       </c>
@@ -28215,7 +28219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="14.25" hidden="1">
+    <row r="9" spans="1:38">
       <c r="A9" s="56">
         <v>43831</v>
       </c>
@@ -28303,7 +28307,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="14.25" hidden="1">
+    <row r="10" spans="1:38">
       <c r="A10" s="56">
         <v>43831</v>
       </c>
@@ -28385,7 +28389,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="14.25" hidden="1">
+    <row r="11" spans="1:38">
       <c r="A11" s="56">
         <v>43831</v>
       </c>
@@ -28469,7 +28473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="14.25" hidden="1">
+    <row r="12" spans="1:38">
       <c r="A12" s="56">
         <v>43831</v>
       </c>
@@ -28552,7 +28556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.25" hidden="1">
+    <row r="13" spans="1:38">
       <c r="A13" s="56">
         <v>43831</v>
       </c>
@@ -28636,7 +28640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="14.25" hidden="1">
+    <row r="14" spans="1:38">
       <c r="A14" s="56">
         <v>43831</v>
       </c>
@@ -28720,7 +28724,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14.25" hidden="1">
+    <row r="15" spans="1:38">
       <c r="A15" s="56">
         <v>43831</v>
       </c>
@@ -28804,7 +28808,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="14.25" hidden="1">
+    <row r="16" spans="1:38">
       <c r="A16" s="56">
         <v>43831</v>
       </c>
@@ -28888,7 +28892,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="14.25" hidden="1">
+    <row r="17" spans="1:31">
       <c r="A17" s="56">
         <v>43831</v>
       </c>
@@ -28972,7 +28976,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="14.25" hidden="1">
+    <row r="18" spans="1:31">
       <c r="A18" s="56">
         <v>43831</v>
       </c>
@@ -29056,7 +29060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="14.25" hidden="1">
+    <row r="19" spans="1:31">
       <c r="A19" s="56">
         <v>43831</v>
       </c>
@@ -29140,7 +29144,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="14.25" hidden="1">
+    <row r="20" spans="1:31">
       <c r="A20" s="56">
         <v>43831</v>
       </c>
@@ -29224,7 +29228,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="14.25" hidden="1">
+    <row r="21" spans="1:31">
       <c r="A21" s="56">
         <v>43831</v>
       </c>
@@ -29308,7 +29312,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="14.25">
+    <row r="22" spans="1:31">
       <c r="A22" s="56">
         <v>43831</v>
       </c>
@@ -29392,7 +29396,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="14.25" hidden="1">
+    <row r="23" spans="1:31">
       <c r="A23" s="56">
         <v>43831</v>
       </c>
@@ -29476,7 +29480,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="14.25" hidden="1">
+    <row r="24" spans="1:31">
       <c r="A24" s="56">
         <v>43831</v>
       </c>
@@ -29560,7 +29564,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="14.25" hidden="1">
+    <row r="25" spans="1:31">
       <c r="A25" s="56">
         <v>43831</v>
       </c>
@@ -29644,7 +29648,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="14.25" hidden="1">
+    <row r="26" spans="1:31">
       <c r="A26" s="56">
         <v>43831</v>
       </c>
@@ -29728,7 +29732,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="14.25" hidden="1">
+    <row r="27" spans="1:31">
       <c r="A27" s="56">
         <v>43831</v>
       </c>
@@ -29812,7 +29816,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="14.25" hidden="1">
+    <row r="28" spans="1:31">
       <c r="A28" s="56">
         <v>43831</v>
       </c>
@@ -29896,7 +29900,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="14.25" hidden="1">
+    <row r="29" spans="1:31">
       <c r="A29" s="56">
         <v>43831</v>
       </c>
@@ -29980,7 +29984,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="14.25" hidden="1">
+    <row r="30" spans="1:31">
       <c r="A30" s="56">
         <v>43831</v>
       </c>
@@ -30064,7 +30068,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="14.25" hidden="1">
+    <row r="31" spans="1:31">
       <c r="A31" s="56">
         <v>43831</v>
       </c>
@@ -30148,7 +30152,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="14.25" hidden="1">
+    <row r="32" spans="1:31">
       <c r="A32" s="56">
         <v>43831</v>
       </c>
@@ -30232,7 +30236,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="14.25" hidden="1">
+    <row r="33" spans="1:31">
       <c r="A33" s="56">
         <v>43831</v>
       </c>
@@ -30316,7 +30320,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="14.25" hidden="1">
+    <row r="34" spans="1:31">
       <c r="A34" s="56">
         <v>43831</v>
       </c>
@@ -30400,7 +30404,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="14.25" hidden="1">
+    <row r="35" spans="1:31">
       <c r="A35" s="56">
         <v>43831</v>
       </c>
@@ -30484,7 +30488,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="14.25" hidden="1">
+    <row r="36" spans="1:31">
       <c r="A36" s="56">
         <v>43831</v>
       </c>
@@ -30568,7 +30572,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="14.25" hidden="1">
+    <row r="37" spans="1:31">
       <c r="A37" s="56">
         <v>43831</v>
       </c>
@@ -30652,7 +30656,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="14.25" hidden="1">
+    <row r="38" spans="1:31">
       <c r="A38" s="56">
         <v>43831</v>
       </c>
@@ -30736,7 +30740,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="14.25" hidden="1">
+    <row r="39" spans="1:31">
       <c r="A39" s="56">
         <v>43831</v>
       </c>
@@ -30820,7 +30824,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="14.25" hidden="1">
+    <row r="40" spans="1:31">
       <c r="A40" s="56">
         <v>43831</v>
       </c>
@@ -30904,7 +30908,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="14.25" hidden="1">
+    <row r="41" spans="1:31">
       <c r="A41" s="56">
         <v>43831</v>
       </c>
@@ -30988,7 +30992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="14.25" hidden="1">
+    <row r="42" spans="1:31">
       <c r="A42" s="56">
         <v>43831</v>
       </c>
@@ -31072,7 +31076,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="14.25" hidden="1">
+    <row r="43" spans="1:31">
       <c r="A43" s="56">
         <v>43831</v>
       </c>
@@ -31156,7 +31160,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="14.25" hidden="1">
+    <row r="44" spans="1:31">
       <c r="A44" s="56">
         <v>43831</v>
       </c>
@@ -31240,7 +31244,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="14.25" hidden="1">
+    <row r="45" spans="1:31">
       <c r="A45" s="56">
         <v>43831</v>
       </c>
@@ -31324,7 +31328,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="14.25" hidden="1">
+    <row r="46" spans="1:31">
       <c r="A46" s="56">
         <v>43831</v>
       </c>
@@ -31408,7 +31412,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="14.25" hidden="1">
+    <row r="47" spans="1:31">
       <c r="A47" s="56">
         <v>43831</v>
       </c>
@@ -31492,7 +31496,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="14.25" hidden="1">
+    <row r="48" spans="1:31">
       <c r="A48" s="56">
         <v>43831</v>
       </c>
@@ -31576,7 +31580,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="14.25" hidden="1">
+    <row r="49" spans="1:31">
       <c r="A49" s="56">
         <v>43831</v>
       </c>
@@ -31660,7 +31664,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="14.25" hidden="1">
+    <row r="50" spans="1:31">
       <c r="A50" s="56">
         <v>43831</v>
       </c>
@@ -31744,7 +31748,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="14.25" hidden="1">
+    <row r="51" spans="1:31">
       <c r="A51" s="56">
         <v>43831</v>
       </c>
@@ -31828,7 +31832,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="14.25" hidden="1">
+    <row r="52" spans="1:31">
       <c r="A52" s="56">
         <v>43831</v>
       </c>
@@ -31912,7 +31916,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="14.25" hidden="1">
+    <row r="53" spans="1:31">
       <c r="A53" s="56">
         <v>43831</v>
       </c>
@@ -31996,7 +32000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="14.25" hidden="1">
+    <row r="54" spans="1:31">
       <c r="A54" s="56">
         <v>43831</v>
       </c>
@@ -32080,7 +32084,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="14.25" hidden="1">
+    <row r="55" spans="1:31">
       <c r="A55" s="56">
         <v>43831</v>
       </c>
@@ -32164,7 +32168,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="14.25" hidden="1">
+    <row r="56" spans="1:31">
       <c r="A56" s="56">
         <v>43831</v>
       </c>
@@ -32248,7 +32252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="14.25" hidden="1">
+    <row r="57" spans="1:31">
       <c r="A57" s="56">
         <v>43831</v>
       </c>
@@ -32335,7 +32339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="14.25" hidden="1">
+    <row r="58" spans="1:31">
       <c r="A58" s="56">
         <v>43831</v>
       </c>
@@ -32420,7 +32424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="14.25" hidden="1">
+    <row r="59" spans="1:31">
       <c r="A59" s="56">
         <v>43831</v>
       </c>
@@ -32504,7 +32508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="14.25" hidden="1">
+    <row r="60" spans="1:31">
       <c r="A60" s="56">
         <v>43831</v>
       </c>
@@ -32591,7 +32595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="14.25" hidden="1">
+    <row r="61" spans="1:31">
       <c r="A61" s="56">
         <v>43831</v>
       </c>
@@ -32675,7 +32679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="14.25" hidden="1">
+    <row r="62" spans="1:31">
       <c r="A62" s="56">
         <v>43831</v>
       </c>
@@ -32759,7 +32763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="14.25" hidden="1">
+    <row r="63" spans="1:31">
       <c r="A63" s="56">
         <v>43831</v>
       </c>
@@ -32843,7 +32847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="14.25" hidden="1">
+    <row r="64" spans="1:31">
       <c r="A64" s="56">
         <v>43831</v>
       </c>
@@ -32921,7 +32925,7 @@
       </c>
       <c r="AE64" s="6"/>
     </row>
-    <row r="65" spans="1:31" ht="14.25" hidden="1">
+    <row r="65" spans="1:31">
       <c r="A65" s="56">
         <v>43831</v>
       </c>
@@ -33001,7 +33005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="14.25" hidden="1">
+    <row r="66" spans="1:31">
       <c r="A66" s="56">
         <v>43831</v>
       </c>
@@ -33081,7 +33085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="14.25" hidden="1">
+    <row r="67" spans="1:31">
       <c r="A67" s="56">
         <v>43831</v>
       </c>
@@ -33163,7 +33167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="14.25" hidden="1">
+    <row r="68" spans="1:31">
       <c r="A68" s="56">
         <v>43831</v>
       </c>
@@ -33245,7 +33249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="14.25" hidden="1">
+    <row r="69" spans="1:31">
       <c r="A69" s="56">
         <v>43831</v>
       </c>
@@ -33327,7 +33331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="14.25" hidden="1">
+    <row r="70" spans="1:31">
       <c r="A70" s="56">
         <v>43831</v>
       </c>
@@ -33409,7 +33413,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="14.25" hidden="1">
+    <row r="71" spans="1:31">
       <c r="A71" s="56">
         <v>43862</v>
       </c>
@@ -33495,7 +33499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="14.25" hidden="1">
+    <row r="72" spans="1:31">
       <c r="A72" s="56">
         <v>43862</v>
       </c>
@@ -33578,7 +33582,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="14.25" hidden="1">
+    <row r="73" spans="1:31">
       <c r="A73" s="56">
         <v>43862</v>
       </c>
@@ -33664,7 +33668,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="14.25" hidden="1">
+    <row r="74" spans="1:31">
       <c r="A74" s="56">
         <v>43862</v>
       </c>
@@ -33752,7 +33756,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="14.25" hidden="1">
+    <row r="75" spans="1:31">
       <c r="A75" s="56">
         <v>43862</v>
       </c>
@@ -33836,7 +33840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="14.25" hidden="1">
+    <row r="76" spans="1:31">
       <c r="A76" s="56">
         <v>43862</v>
       </c>
@@ -33920,7 +33924,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="14.25" hidden="1">
+    <row r="77" spans="1:31">
       <c r="A77" s="56">
         <v>43862</v>
       </c>
@@ -34004,7 +34008,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="14.25" hidden="1">
+    <row r="78" spans="1:31">
       <c r="A78" s="56">
         <v>43862</v>
       </c>
@@ -34088,7 +34092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="14.25" hidden="1">
+    <row r="79" spans="1:31">
       <c r="A79" s="56">
         <v>43862</v>
       </c>
@@ -34172,7 +34176,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="14.25" hidden="1">
+    <row r="80" spans="1:31">
       <c r="A80" s="56">
         <v>43862</v>
       </c>
@@ -34256,7 +34260,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="14.25" hidden="1">
+    <row r="81" spans="1:31">
       <c r="A81" s="56">
         <v>43862</v>
       </c>
@@ -34340,7 +34344,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="14.25" hidden="1">
+    <row r="82" spans="1:31">
       <c r="A82" s="56">
         <v>43862</v>
       </c>
@@ -34426,7 +34430,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="14.25" hidden="1">
+    <row r="83" spans="1:31">
       <c r="A83" s="56">
         <v>43862</v>
       </c>
@@ -34510,7 +34514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="14.25" hidden="1">
+    <row r="84" spans="1:31">
       <c r="A84" s="56">
         <v>43862</v>
       </c>
@@ -34594,7 +34598,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="14.25" hidden="1">
+    <row r="85" spans="1:31">
       <c r="A85" s="56">
         <v>43862</v>
       </c>
@@ -34678,7 +34682,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="14.25" hidden="1">
+    <row r="86" spans="1:31">
       <c r="A86" s="56">
         <v>43862</v>
       </c>
@@ -34762,7 +34766,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="14.25">
+    <row r="87" spans="1:31">
       <c r="A87" s="56">
         <v>43862</v>
       </c>
@@ -34846,7 +34850,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="14.25" hidden="1">
+    <row r="88" spans="1:31">
       <c r="A88" s="56">
         <v>43862</v>
       </c>
@@ -34930,7 +34934,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="14.25" hidden="1">
+    <row r="89" spans="1:31">
       <c r="A89" s="56">
         <v>43862</v>
       </c>
@@ -35014,7 +35018,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="14.25" hidden="1">
+    <row r="90" spans="1:31">
       <c r="A90" s="56">
         <v>43862</v>
       </c>
@@ -35098,7 +35102,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="14.25" hidden="1">
+    <row r="91" spans="1:31">
       <c r="A91" s="56">
         <v>43862</v>
       </c>
@@ -35182,7 +35186,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="14.25" hidden="1">
+    <row r="92" spans="1:31">
       <c r="A92" s="56">
         <v>43862</v>
       </c>
@@ -35266,7 +35270,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="14.25" hidden="1">
+    <row r="93" spans="1:31">
       <c r="A93" s="56">
         <v>43862</v>
       </c>
@@ -35350,7 +35354,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="14.25" hidden="1">
+    <row r="94" spans="1:31">
       <c r="A94" s="56">
         <v>43862</v>
       </c>
@@ -35434,7 +35438,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="14.25" hidden="1">
+    <row r="95" spans="1:31">
       <c r="A95" s="56">
         <v>43862</v>
       </c>
@@ -35518,7 +35522,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="14.25" hidden="1">
+    <row r="96" spans="1:31">
       <c r="A96" s="56">
         <v>43862</v>
       </c>
@@ -35602,7 +35606,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="14.25" hidden="1">
+    <row r="97" spans="1:31">
       <c r="A97" s="56">
         <v>43862</v>
       </c>
@@ -35686,7 +35690,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="14.25" hidden="1">
+    <row r="98" spans="1:31">
       <c r="A98" s="56">
         <v>43862</v>
       </c>
@@ -35770,7 +35774,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="14.25" hidden="1">
+    <row r="99" spans="1:31">
       <c r="A99" s="56">
         <v>43862</v>
       </c>
@@ -35854,7 +35858,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="14.25" hidden="1">
+    <row r="100" spans="1:31">
       <c r="A100" s="56">
         <v>43862</v>
       </c>
@@ -35938,7 +35942,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="14.25" hidden="1">
+    <row r="101" spans="1:31">
       <c r="A101" s="56">
         <v>43862</v>
       </c>
@@ -36022,7 +36026,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="14.25" hidden="1">
+    <row r="102" spans="1:31">
       <c r="A102" s="56">
         <v>43862</v>
       </c>
@@ -36106,7 +36110,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="14.25" hidden="1">
+    <row r="103" spans="1:31">
       <c r="A103" s="56">
         <v>43862</v>
       </c>
@@ -36190,7 +36194,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="14.25" hidden="1">
+    <row r="104" spans="1:31">
       <c r="A104" s="56">
         <v>43862</v>
       </c>
@@ -36274,7 +36278,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="14.25" hidden="1">
+    <row r="105" spans="1:31">
       <c r="A105" s="56">
         <v>43862</v>
       </c>
@@ -36358,7 +36362,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="14.25" hidden="1">
+    <row r="106" spans="1:31">
       <c r="A106" s="56">
         <v>43862</v>
       </c>
@@ -36442,7 +36446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="14.25" hidden="1">
+    <row r="107" spans="1:31">
       <c r="A107" s="56">
         <v>43862</v>
       </c>
@@ -36526,7 +36530,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="14.25" hidden="1">
+    <row r="108" spans="1:31">
       <c r="A108" s="56">
         <v>43862</v>
       </c>
@@ -36610,7 +36614,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="14.25" hidden="1">
+    <row r="109" spans="1:31">
       <c r="A109" s="56">
         <v>43862</v>
       </c>
@@ -36694,7 +36698,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="14.25" hidden="1">
+    <row r="110" spans="1:31">
       <c r="A110" s="56">
         <v>43862</v>
       </c>
@@ -36778,7 +36782,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="14.25" hidden="1">
+    <row r="111" spans="1:31">
       <c r="A111" s="56">
         <v>43862</v>
       </c>
@@ -36862,7 +36866,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="14.25" hidden="1">
+    <row r="112" spans="1:31">
       <c r="A112" s="56">
         <v>43862</v>
       </c>
@@ -36946,7 +36950,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="14.25" hidden="1">
+    <row r="113" spans="1:31">
       <c r="A113" s="56">
         <v>43862</v>
       </c>
@@ -37030,7 +37034,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="14.25" hidden="1">
+    <row r="114" spans="1:31">
       <c r="A114" s="56">
         <v>43862</v>
       </c>
@@ -37114,7 +37118,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="14.25" hidden="1">
+    <row r="115" spans="1:31">
       <c r="A115" s="56">
         <v>43862</v>
       </c>
@@ -37198,7 +37202,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="14.25" hidden="1">
+    <row r="116" spans="1:31">
       <c r="A116" s="56">
         <v>43862</v>
       </c>
@@ -37282,7 +37286,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="14.25" hidden="1">
+    <row r="117" spans="1:31">
       <c r="A117" s="56">
         <v>43862</v>
       </c>
@@ -37366,7 +37370,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="14.25" hidden="1">
+    <row r="118" spans="1:31">
       <c r="A118" s="56">
         <v>43862</v>
       </c>
@@ -37450,7 +37454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="14.25" hidden="1">
+    <row r="119" spans="1:31">
       <c r="A119" s="56">
         <v>43862</v>
       </c>
@@ -37534,7 +37538,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="14.25" hidden="1">
+    <row r="120" spans="1:31">
       <c r="A120" s="56">
         <v>43862</v>
       </c>
@@ -37618,7 +37622,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="14.25" hidden="1">
+    <row r="121" spans="1:31">
       <c r="A121" s="56">
         <v>43862</v>
       </c>
@@ -37702,7 +37706,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="14.25" hidden="1">
+    <row r="122" spans="1:31">
       <c r="A122" s="56">
         <v>43862</v>
       </c>
@@ -37791,7 +37795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="14.25" hidden="1">
+    <row r="123" spans="1:31">
       <c r="A123" s="56">
         <v>43862</v>
       </c>
@@ -37877,7 +37881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="14.25" hidden="1">
+    <row r="124" spans="1:31">
       <c r="A124" s="56">
         <v>43862</v>
       </c>
@@ -37963,7 +37967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="14.25" hidden="1">
+    <row r="125" spans="1:31">
       <c r="A125" s="56">
         <v>43862</v>
       </c>
@@ -38047,7 +38051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="14.25" hidden="1">
+    <row r="126" spans="1:31">
       <c r="A126" s="56">
         <v>43862</v>
       </c>
@@ -38133,7 +38137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="14.25" hidden="1">
+    <row r="127" spans="1:31">
       <c r="A127" s="56">
         <v>43862</v>
       </c>
@@ -38219,7 +38223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="14.25" hidden="1">
+    <row r="128" spans="1:31">
       <c r="A128" s="56">
         <v>43862</v>
       </c>
@@ -38305,7 +38309,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="14.25" hidden="1">
+    <row r="129" spans="1:31">
       <c r="A129" s="65">
         <v>43891</v>
       </c>
@@ -38391,7 +38395,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="14.25" hidden="1">
+    <row r="130" spans="1:31">
       <c r="A130" s="65">
         <v>43891</v>
       </c>
@@ -38481,7 +38485,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="14.25" hidden="1">
+    <row r="131" spans="1:31">
       <c r="A131" s="65">
         <v>43891</v>
       </c>
@@ -38567,7 +38571,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="14.25" hidden="1">
+    <row r="132" spans="1:31">
       <c r="A132" s="65">
         <v>43891</v>
       </c>
@@ -38650,7 +38654,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="14.25" hidden="1">
+    <row r="133" spans="1:31">
       <c r="A133" s="65">
         <v>43891</v>
       </c>
@@ -38734,7 +38738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="14.25" hidden="1">
+    <row r="134" spans="1:31">
       <c r="A134" s="65">
         <v>43891</v>
       </c>
@@ -38818,7 +38822,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="14.25" hidden="1">
+    <row r="135" spans="1:31">
       <c r="A135" s="65">
         <v>43891</v>
       </c>
@@ -38902,7 +38906,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="14.25" hidden="1">
+    <row r="136" spans="1:31">
       <c r="A136" s="65">
         <v>43891</v>
       </c>
@@ -38986,7 +38990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="14.25" hidden="1">
+    <row r="137" spans="1:31">
       <c r="A137" s="65">
         <v>43891</v>
       </c>
@@ -39070,7 +39074,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="14.25" hidden="1">
+    <row r="138" spans="1:31">
       <c r="A138" s="65">
         <v>43891</v>
       </c>
@@ -39154,7 +39158,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="14.25" hidden="1">
+    <row r="139" spans="1:31">
       <c r="A139" s="65">
         <v>43891</v>
       </c>
@@ -39238,7 +39242,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="14.25" hidden="1">
+    <row r="140" spans="1:31">
       <c r="A140" s="65">
         <v>43891</v>
       </c>
@@ -39322,7 +39326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="14.25" hidden="1">
+    <row r="141" spans="1:31">
       <c r="A141" s="65">
         <v>43891</v>
       </c>
@@ -39406,7 +39410,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="14.25" hidden="1">
+    <row r="142" spans="1:31">
       <c r="A142" s="65">
         <v>43891</v>
       </c>
@@ -39490,7 +39494,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="14.25" hidden="1">
+    <row r="143" spans="1:31">
       <c r="A143" s="65">
         <v>43891</v>
       </c>
@@ -39574,7 +39578,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="14.25">
+    <row r="144" spans="1:31">
       <c r="A144" s="65">
         <v>43891</v>
       </c>
@@ -39658,7 +39662,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="14.25" hidden="1">
+    <row r="145" spans="1:31">
       <c r="A145" s="65">
         <v>43891</v>
       </c>
@@ -39742,7 +39746,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="14.25" hidden="1">
+    <row r="146" spans="1:31">
       <c r="A146" s="65">
         <v>43891</v>
       </c>
@@ -39826,7 +39830,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="14.25" hidden="1">
+    <row r="147" spans="1:31">
       <c r="A147" s="65">
         <v>43891</v>
       </c>
@@ -39910,7 +39914,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="14.25" hidden="1">
+    <row r="148" spans="1:31">
       <c r="A148" s="65">
         <v>43891</v>
       </c>
@@ -39994,7 +39998,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="14.25" hidden="1">
+    <row r="149" spans="1:31">
       <c r="A149" s="65">
         <v>43891</v>
       </c>
@@ -40078,7 +40082,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="14.25" hidden="1">
+    <row r="150" spans="1:31">
       <c r="A150" s="65">
         <v>43891</v>
       </c>
@@ -40162,7 +40166,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="14.25" hidden="1">
+    <row r="151" spans="1:31">
       <c r="A151" s="65">
         <v>43891</v>
       </c>
@@ -40246,7 +40250,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="14.25" hidden="1">
+    <row r="152" spans="1:31">
       <c r="A152" s="65">
         <v>43891</v>
       </c>
@@ -40330,7 +40334,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="14.25" hidden="1">
+    <row r="153" spans="1:31">
       <c r="A153" s="65">
         <v>43891</v>
       </c>
@@ -40414,7 +40418,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="14.25" hidden="1">
+    <row r="154" spans="1:31">
       <c r="A154" s="65">
         <v>43891</v>
       </c>
@@ -40498,7 +40502,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="14.25" hidden="1">
+    <row r="155" spans="1:31">
       <c r="A155" s="65">
         <v>43891</v>
       </c>
@@ -40582,7 +40586,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="14.25" hidden="1">
+    <row r="156" spans="1:31">
       <c r="A156" s="65">
         <v>43891</v>
       </c>
@@ -40666,7 +40670,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="14.25" hidden="1">
+    <row r="157" spans="1:31">
       <c r="A157" s="65">
         <v>43891</v>
       </c>
@@ -40750,7 +40754,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="14.25" hidden="1">
+    <row r="158" spans="1:31">
       <c r="A158" s="65">
         <v>43891</v>
       </c>
@@ -40834,7 +40838,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="159" spans="1:31" ht="14.25" hidden="1">
+    <row r="159" spans="1:31">
       <c r="A159" s="65">
         <v>43891</v>
       </c>
@@ -40918,7 +40922,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="14.25" hidden="1">
+    <row r="160" spans="1:31">
       <c r="A160" s="65">
         <v>43891</v>
       </c>
@@ -41002,7 +41006,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="14.25" hidden="1">
+    <row r="161" spans="1:31">
       <c r="A161" s="65">
         <v>43891</v>
       </c>
@@ -41086,7 +41090,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="14.25" hidden="1">
+    <row r="162" spans="1:31">
       <c r="A162" s="65">
         <v>43891</v>
       </c>
@@ -41170,7 +41174,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="14.25" hidden="1">
+    <row r="163" spans="1:31">
       <c r="A163" s="65">
         <v>43891</v>
       </c>
@@ -41254,7 +41258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:31" ht="14.25" hidden="1">
+    <row r="164" spans="1:31">
       <c r="A164" s="65">
         <v>43891</v>
       </c>
@@ -41338,7 +41342,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="165" spans="1:31" ht="14.25" hidden="1">
+    <row r="165" spans="1:31">
       <c r="A165" s="65">
         <v>43891</v>
       </c>
@@ -41422,7 +41426,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="166" spans="1:31" ht="14.25" hidden="1">
+    <row r="166" spans="1:31">
       <c r="A166" s="65">
         <v>43891</v>
       </c>
@@ -41506,7 +41510,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="14.25" hidden="1">
+    <row r="167" spans="1:31">
       <c r="A167" s="65">
         <v>43891</v>
       </c>
@@ -41590,7 +41594,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="14.25" hidden="1">
+    <row r="168" spans="1:31">
       <c r="A168" s="65">
         <v>43891</v>
       </c>
@@ -41674,7 +41678,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="14.25" hidden="1">
+    <row r="169" spans="1:31">
       <c r="A169" s="65">
         <v>43891</v>
       </c>
@@ -41758,7 +41762,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="14.25" hidden="1">
+    <row r="170" spans="1:31">
       <c r="A170" s="65">
         <v>43891</v>
       </c>
@@ -41842,7 +41846,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="14.25" hidden="1">
+    <row r="171" spans="1:31">
       <c r="A171" s="65">
         <v>43891</v>
       </c>
@@ -41926,7 +41930,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="172" spans="1:31" ht="14.25" hidden="1">
+    <row r="172" spans="1:31">
       <c r="A172" s="65">
         <v>43891</v>
       </c>
@@ -42010,7 +42014,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="173" spans="1:31" ht="14.25" hidden="1">
+    <row r="173" spans="1:31">
       <c r="A173" s="65">
         <v>43891</v>
       </c>
@@ -42094,7 +42098,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="174" spans="1:31" ht="14.25" hidden="1">
+    <row r="174" spans="1:31">
       <c r="A174" s="65">
         <v>43891</v>
       </c>
@@ -42178,7 +42182,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="175" spans="1:31" ht="14.25" hidden="1">
+    <row r="175" spans="1:31">
       <c r="A175" s="65">
         <v>43891</v>
       </c>
@@ -42262,7 +42266,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="176" spans="1:31" ht="14.25" hidden="1">
+    <row r="176" spans="1:31">
       <c r="A176" s="65">
         <v>43891</v>
       </c>
@@ -42346,7 +42350,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="177" spans="1:38" ht="14.25" hidden="1">
+    <row r="177" spans="1:38">
       <c r="A177" s="65">
         <v>43891</v>
       </c>
@@ -42431,7 +42435,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="178" spans="1:38" ht="14.25" hidden="1">
+    <row r="178" spans="1:38">
       <c r="A178" s="65">
         <v>43891</v>
       </c>
@@ -42517,7 +42521,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:38" ht="14.25" hidden="1">
+    <row r="179" spans="1:38">
       <c r="A179" s="65">
         <v>43891</v>
       </c>
@@ -42603,7 +42607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:38" ht="14.25" hidden="1">
+    <row r="180" spans="1:38">
       <c r="A180" s="66">
         <v>43891</v>
       </c>
@@ -42694,7 +42698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:38" ht="14.25" hidden="1">
+    <row r="181" spans="1:38">
       <c r="A181" s="67">
         <v>43922</v>
       </c>
@@ -42797,7 +42801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:38" ht="14.25" hidden="1">
+    <row r="182" spans="1:38">
       <c r="A182" s="67">
         <v>43922</v>
       </c>
@@ -42904,7 +42908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:38" ht="14.25" hidden="1">
+    <row r="183" spans="1:38">
       <c r="A183" s="67">
         <v>43922</v>
       </c>
@@ -43007,7 +43011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:38" ht="14.25" hidden="1">
+    <row r="184" spans="1:38">
       <c r="A184" s="67">
         <v>43922</v>
       </c>
@@ -43110,7 +43114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:38" ht="14.25" hidden="1">
+    <row r="185" spans="1:38">
       <c r="A185" s="67">
         <v>43922</v>
       </c>
@@ -43213,7 +43217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:38" ht="14.25">
+    <row r="186" spans="1:38">
       <c r="A186" s="67">
         <v>43922</v>
       </c>
@@ -43316,7 +43320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:38" ht="14.25" hidden="1">
+    <row r="187" spans="1:38">
       <c r="A187" s="67">
         <v>43922</v>
       </c>
@@ -43419,7 +43423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:38" ht="14.25" hidden="1">
+    <row r="188" spans="1:38">
       <c r="A188" s="67">
         <v>43922</v>
       </c>
@@ -43522,7 +43526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:38" ht="14.25" hidden="1">
+    <row r="189" spans="1:38">
       <c r="A189" s="67">
         <v>43922</v>
       </c>
@@ -43625,7 +43629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:38" ht="14.25" hidden="1">
+    <row r="190" spans="1:38">
       <c r="A190" s="67">
         <v>43922</v>
       </c>
@@ -43728,7 +43732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:38" ht="14.25" hidden="1">
+    <row r="191" spans="1:38">
       <c r="A191" s="67">
         <v>43922</v>
       </c>
@@ -43831,7 +43835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:38" ht="14.25" hidden="1">
+    <row r="192" spans="1:38">
       <c r="A192" s="67">
         <v>43922</v>
       </c>
@@ -43934,7 +43938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:37" ht="14.25" hidden="1">
+    <row r="193" spans="1:37">
       <c r="A193" s="67">
         <v>43922</v>
       </c>
@@ -44037,7 +44041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:37" ht="14.25" hidden="1">
+    <row r="194" spans="1:37">
       <c r="A194" s="67">
         <v>43922</v>
       </c>
@@ -44140,7 +44144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:37" ht="14.25" hidden="1">
+    <row r="195" spans="1:37">
       <c r="A195" s="67">
         <v>43922</v>
       </c>
@@ -44243,7 +44247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:37" ht="14.25" hidden="1">
+    <row r="196" spans="1:37">
       <c r="A196" s="67">
         <v>43922</v>
       </c>
@@ -44346,7 +44350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:37" ht="14.25" hidden="1">
+    <row r="197" spans="1:37">
       <c r="A197" s="67">
         <v>43922</v>
       </c>
@@ -44449,7 +44453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:37" ht="14.25" hidden="1">
+    <row r="198" spans="1:37">
       <c r="A198" s="67">
         <v>43922</v>
       </c>
@@ -44552,7 +44556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:37" ht="14.25" hidden="1">
+    <row r="199" spans="1:37">
       <c r="A199" s="67">
         <v>43922</v>
       </c>
@@ -44655,7 +44659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:37" ht="14.25" hidden="1">
+    <row r="200" spans="1:37">
       <c r="A200" s="67">
         <v>43922</v>
       </c>
@@ -44758,7 +44762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:37" ht="14.25" hidden="1">
+    <row r="201" spans="1:37">
       <c r="A201" s="67">
         <v>43922</v>
       </c>
@@ -44861,7 +44865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:37" ht="14.25" hidden="1">
+    <row r="202" spans="1:37">
       <c r="A202" s="67">
         <v>43922</v>
       </c>
@@ -44964,7 +44968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:37" ht="14.25" hidden="1">
+    <row r="203" spans="1:37">
       <c r="A203" s="67">
         <v>43922</v>
       </c>
@@ -45067,7 +45071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:37" ht="14.25" hidden="1">
+    <row r="204" spans="1:37">
       <c r="A204" s="67">
         <v>43922</v>
       </c>
@@ -45170,7 +45174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:37" ht="14.25" hidden="1">
+    <row r="205" spans="1:37">
       <c r="A205" s="67">
         <v>43922</v>
       </c>
@@ -45273,7 +45277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:37" ht="14.25" hidden="1">
+    <row r="206" spans="1:37">
       <c r="A206" s="67">
         <v>43922</v>
       </c>
@@ -45376,7 +45380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:37" ht="14.25" hidden="1">
+    <row r="207" spans="1:37">
       <c r="A207" s="67">
         <v>43922</v>
       </c>
@@ -45479,7 +45483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:37" ht="14.25" hidden="1">
+    <row r="208" spans="1:37">
       <c r="A208" s="67">
         <v>43922</v>
       </c>
@@ -45582,7 +45586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:38" ht="14.25" hidden="1">
+    <row r="209" spans="1:38">
       <c r="A209" s="67">
         <v>43922</v>
       </c>
@@ -45685,7 +45689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:38" ht="14.25" hidden="1">
+    <row r="210" spans="1:38">
       <c r="A210" s="67">
         <v>43922</v>
       </c>
@@ -45788,7 +45792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:38" ht="14.25" hidden="1">
+    <row r="211" spans="1:38">
       <c r="A211" s="67">
         <v>43922</v>
       </c>
@@ -45891,7 +45895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:38" ht="14.25" hidden="1">
+    <row r="212" spans="1:38">
       <c r="A212" s="67">
         <v>43922</v>
       </c>
@@ -45994,7 +45998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:38" ht="14.25" hidden="1">
+    <row r="213" spans="1:38">
       <c r="A213" s="67">
         <v>43922</v>
       </c>
@@ -46097,7 +46101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:38" ht="14.25" hidden="1">
+    <row r="214" spans="1:38">
       <c r="A214" s="67">
         <v>43922</v>
       </c>
@@ -46200,7 +46204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:38" ht="14.25" hidden="1">
+    <row r="215" spans="1:38">
       <c r="A215" s="67">
         <v>43922</v>
       </c>
@@ -46303,7 +46307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:38" ht="14.25" hidden="1">
+    <row r="216" spans="1:38">
       <c r="A216" s="67">
         <v>43922</v>
       </c>
@@ -46406,7 +46410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:38" ht="14.25" hidden="1">
+    <row r="217" spans="1:38">
       <c r="A217" s="67">
         <v>43922</v>
       </c>
@@ -46509,7 +46513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:38" ht="14.25" hidden="1">
+    <row r="218" spans="1:38">
       <c r="A218" s="67">
         <v>43922</v>
       </c>
@@ -46612,7 +46616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:38" ht="14.25" hidden="1">
+    <row r="219" spans="1:38">
       <c r="A219" s="67">
         <v>43922</v>
       </c>
@@ -46721,7 +46725,7 @@
         <v>6.9121338909098995E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:38" ht="14.25" hidden="1">
+    <row r="220" spans="1:38">
       <c r="A220" s="67">
         <v>43922</v>
       </c>
@@ -46824,7 +46828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:38" ht="14.25" hidden="1">
+    <row r="221" spans="1:38">
       <c r="A221" s="67">
         <v>43922</v>
       </c>
@@ -46927,7 +46931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:38" ht="14.25" hidden="1">
+    <row r="222" spans="1:38">
       <c r="A222" s="67">
         <v>43922</v>
       </c>
@@ -47023,7 +47027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:38" ht="14.25" hidden="1">
+    <row r="223" spans="1:38">
       <c r="A223" s="67">
         <v>43922</v>
       </c>
@@ -47130,7 +47134,7 @@
         <v>-187767.14516129033</v>
       </c>
     </row>
-    <row r="224" spans="1:38" ht="14.25" hidden="1">
+    <row r="224" spans="1:38">
       <c r="A224" s="67">
         <v>43922</v>
       </c>
@@ -47236,7 +47240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:38" ht="14.25" hidden="1">
+    <row r="225" spans="1:38">
       <c r="A225" s="67">
         <v>43922</v>
       </c>
@@ -47354,7 +47358,7 @@
         <v>7.4469172931276262</v>
       </c>
     </row>
-    <row r="226" spans="1:38" ht="14.25" hidden="1">
+    <row r="226" spans="1:38">
       <c r="A226" s="67">
         <v>43922</v>
       </c>
@@ -47468,7 +47472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:38" ht="14.25" hidden="1">
+    <row r="227" spans="1:38">
       <c r="A227" s="67">
         <v>43922</v>
       </c>
@@ -47579,7 +47583,7 @@
         <v>68.772846715641208</v>
       </c>
     </row>
-    <row r="228" spans="1:38" ht="14.25" hidden="1">
+    <row r="228" spans="1:38">
       <c r="A228" s="67">
         <v>43922</v>
       </c>
@@ -47682,7 +47686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:38" ht="14.25" hidden="1">
+    <row r="229" spans="1:38">
       <c r="A229" s="67">
         <v>43922</v>
       </c>
@@ -47785,7 +47789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:38" ht="14.25" hidden="1">
+    <row r="230" spans="1:38">
       <c r="A230" s="67">
         <v>43922</v>
       </c>
@@ -47892,7 +47896,7 @@
         <v>-15.862394366197179</v>
       </c>
     </row>
-    <row r="231" spans="1:38" ht="14.25" hidden="1">
+    <row r="231" spans="1:38">
       <c r="A231" s="67">
         <v>43922</v>
       </c>
@@ -47999,7 +48003,7 @@
         <v>-0.1397183098591549</v>
       </c>
     </row>
-    <row r="232" spans="1:38" ht="14.25" hidden="1">
+    <row r="232" spans="1:38">
       <c r="A232" s="67">
         <v>43922</v>
       </c>
@@ -48091,7 +48095,7 @@
       <c r="AJ232" s="77"/>
       <c r="AK232" s="77"/>
     </row>
-    <row r="233" spans="1:38" ht="14.25" hidden="1">
+    <row r="233" spans="1:38">
       <c r="A233" s="67">
         <v>43922</v>
       </c>
@@ -48186,7 +48190,7 @@
       <c r="AJ233" s="77"/>
       <c r="AK233" s="77"/>
     </row>
-    <row r="234" spans="1:38" ht="14.25" hidden="1">
+    <row r="234" spans="1:38">
       <c r="A234" s="67">
         <v>43922</v>
       </c>
@@ -48277,7 +48281,7 @@
       <c r="AJ234" s="77"/>
       <c r="AK234" s="77"/>
     </row>
-    <row r="235" spans="1:38" ht="14.25" hidden="1">
+    <row r="235" spans="1:38">
       <c r="A235" s="67">
         <v>43922</v>
       </c>
@@ -48365,7 +48369,7 @@
       <c r="AJ235" s="77"/>
       <c r="AK235" s="77"/>
     </row>
-    <row r="236" spans="1:38" ht="14.25" hidden="1">
+    <row r="236" spans="1:38">
       <c r="A236" s="67">
         <v>43922</v>
       </c>
@@ -48456,7 +48460,7 @@
       <c r="AJ236" s="87"/>
       <c r="AK236" s="87"/>
     </row>
-    <row r="237" spans="1:38" ht="14.25" hidden="1">
+    <row r="237" spans="1:38">
       <c r="A237" s="67">
         <v>43922</v>
       </c>
@@ -48548,7 +48552,7 @@
       <c r="AJ237" s="77"/>
       <c r="AK237" s="77"/>
     </row>
-    <row r="238" spans="1:38" ht="14.25" hidden="1">
+    <row r="238" spans="1:38">
       <c r="A238" s="90" t="s">
         <v>309</v>
       </c>
@@ -48660,7 +48664,7 @@
         <v>-1393439.1774193547</v>
       </c>
     </row>
-    <row r="239" spans="1:38" ht="14.25" hidden="1">
+    <row r="239" spans="1:38">
       <c r="A239" s="90" t="s">
         <v>309</v>
       </c>
@@ -48770,7 +48774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:38" ht="14.25" hidden="1">
+    <row r="240" spans="1:38">
       <c r="A240" s="90" t="s">
         <v>309</v>
       </c>
@@ -48883,7 +48887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:37" ht="14.25" hidden="1">
+    <row r="241" spans="1:37">
       <c r="A241" s="90" t="s">
         <v>309</v>
       </c>
@@ -48987,7 +48991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:37" ht="14.25" hidden="1">
+    <row r="242" spans="1:37">
       <c r="A242" s="90" t="s">
         <v>309</v>
       </c>
@@ -49091,7 +49095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:37" ht="14.25" hidden="1">
+    <row r="243" spans="1:37">
       <c r="A243" s="90" t="s">
         <v>309</v>
       </c>
@@ -49195,7 +49199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:37" ht="14.25" hidden="1">
+    <row r="244" spans="1:37">
       <c r="A244" s="90" t="s">
         <v>309</v>
       </c>
@@ -49299,7 +49303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:37" ht="14.25" hidden="1">
+    <row r="245" spans="1:37">
       <c r="A245" s="90" t="s">
         <v>309</v>
       </c>
@@ -49403,7 +49407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:37" ht="14.25">
+    <row r="246" spans="1:37">
       <c r="A246" s="90" t="s">
         <v>309</v>
       </c>
@@ -49507,7 +49511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:37" ht="14.25" hidden="1">
+    <row r="247" spans="1:37">
       <c r="A247" s="90" t="s">
         <v>309</v>
       </c>
@@ -49611,7 +49615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:37" ht="14.25" hidden="1">
+    <row r="248" spans="1:37">
       <c r="A248" s="90" t="s">
         <v>309</v>
       </c>
@@ -49715,7 +49719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:37" ht="14.25" hidden="1">
+    <row r="249" spans="1:37">
       <c r="A249" s="90" t="s">
         <v>309</v>
       </c>
@@ -49819,7 +49823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:37" ht="14.25" hidden="1">
+    <row r="250" spans="1:37">
       <c r="A250" s="90" t="s">
         <v>309</v>
       </c>
@@ -49923,7 +49927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:37" ht="14.25" hidden="1">
+    <row r="251" spans="1:37">
       <c r="A251" s="90" t="s">
         <v>309</v>
       </c>
@@ -50027,7 +50031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:37" ht="14.25" hidden="1">
+    <row r="252" spans="1:37">
       <c r="A252" s="90" t="s">
         <v>309</v>
       </c>
@@ -50131,7 +50135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:37" ht="14.25" hidden="1">
+    <row r="253" spans="1:37">
       <c r="A253" s="90" t="s">
         <v>309</v>
       </c>
@@ -50235,7 +50239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:37" ht="14.25" hidden="1">
+    <row r="254" spans="1:37">
       <c r="A254" s="90" t="s">
         <v>309</v>
       </c>
@@ -50339,7 +50343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:37" ht="14.25" hidden="1">
+    <row r="255" spans="1:37">
       <c r="A255" s="90" t="s">
         <v>309</v>
       </c>
@@ -50443,7 +50447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:37" ht="14.25" hidden="1">
+    <row r="256" spans="1:37">
       <c r="A256" s="90" t="s">
         <v>309</v>
       </c>
@@ -50547,7 +50551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:38" ht="14.25" hidden="1">
+    <row r="257" spans="1:38">
       <c r="A257" s="90" t="s">
         <v>309</v>
       </c>
@@ -50651,7 +50655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:38" ht="14.25" hidden="1">
+    <row r="258" spans="1:38">
       <c r="A258" s="90" t="s">
         <v>309</v>
       </c>
@@ -50755,7 +50759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:38" ht="14.25" hidden="1">
+    <row r="259" spans="1:38">
       <c r="A259" s="90" t="s">
         <v>309</v>
       </c>
@@ -50859,7 +50863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:38" ht="14.25" hidden="1">
+    <row r="260" spans="1:38">
       <c r="A260" s="90" t="s">
         <v>309</v>
       </c>
@@ -50963,7 +50967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:38" ht="14.25" hidden="1">
+    <row r="261" spans="1:38">
       <c r="A261" s="90" t="s">
         <v>309</v>
       </c>
@@ -51067,7 +51071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:38" ht="14.25" hidden="1">
+    <row r="262" spans="1:38">
       <c r="A262" s="90" t="s">
         <v>309</v>
       </c>
@@ -51175,7 +51179,7 @@
         <v>0.15837499999906868</v>
       </c>
     </row>
-    <row r="263" spans="1:38" ht="14.25" hidden="1">
+    <row r="263" spans="1:38">
       <c r="A263" s="90" t="s">
         <v>309</v>
       </c>
@@ -51279,7 +51283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:38" ht="14.25" hidden="1">
+    <row r="264" spans="1:38">
       <c r="A264" s="90" t="s">
         <v>309</v>
       </c>
@@ -51383,7 +51387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:38" ht="14.25" hidden="1">
+    <row r="265" spans="1:38">
       <c r="A265" s="90" t="s">
         <v>309</v>
       </c>
@@ -51487,7 +51491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:38" ht="14.25" hidden="1">
+    <row r="266" spans="1:38">
       <c r="A266" s="90" t="s">
         <v>309</v>
       </c>
@@ -51591,7 +51595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:38" ht="14.25" hidden="1">
+    <row r="267" spans="1:38">
       <c r="A267" s="90" t="s">
         <v>309</v>
       </c>
@@ -51695,7 +51699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:38" ht="14.25" hidden="1">
+    <row r="268" spans="1:38">
       <c r="A268" s="90" t="s">
         <v>309</v>
       </c>
@@ -51799,7 +51803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:38" ht="14.25" hidden="1">
+    <row r="269" spans="1:38">
       <c r="A269" s="90" t="s">
         <v>309</v>
       </c>
@@ -51903,7 +51907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:38" ht="14.25" hidden="1">
+    <row r="270" spans="1:38">
       <c r="A270" s="90" t="s">
         <v>309</v>
       </c>
@@ -52007,7 +52011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:38" ht="14.25" hidden="1">
+    <row r="271" spans="1:38">
       <c r="A271" s="90" t="s">
         <v>309</v>
       </c>
@@ -52111,7 +52115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:38" ht="14.25" hidden="1">
+    <row r="272" spans="1:38">
       <c r="A272" s="90" t="s">
         <v>309</v>
       </c>
@@ -52215,7 +52219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:38" ht="14.25" hidden="1">
+    <row r="273" spans="1:38">
       <c r="A273" s="90" t="s">
         <v>309</v>
       </c>
@@ -52319,7 +52323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:38" ht="14.25" hidden="1">
+    <row r="274" spans="1:38">
       <c r="A274" s="90" t="s">
         <v>309</v>
       </c>
@@ -52423,7 +52427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:38" ht="14.25" hidden="1">
+    <row r="275" spans="1:38">
       <c r="A275" s="90" t="s">
         <v>309</v>
       </c>
@@ -52527,7 +52531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:38" ht="14.25" hidden="1">
+    <row r="276" spans="1:38">
       <c r="A276" s="90" t="s">
         <v>309</v>
       </c>
@@ -52631,7 +52635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:38" ht="14.25" hidden="1">
+    <row r="277" spans="1:38">
       <c r="A277" s="90" t="s">
         <v>309</v>
       </c>
@@ -52735,7 +52739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:38" ht="14.25" hidden="1">
+    <row r="278" spans="1:38">
       <c r="A278" s="90" t="s">
         <v>309</v>
       </c>
@@ -52839,7 +52843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:38" ht="14.25" hidden="1">
+    <row r="279" spans="1:38">
       <c r="A279" s="90" t="s">
         <v>309</v>
       </c>
@@ -52947,7 +52951,7 @@
         <v>-1.4058577407013217E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:38" ht="14.25" hidden="1">
+    <row r="280" spans="1:38">
       <c r="A280" s="90" t="s">
         <v>309</v>
       </c>
@@ -53051,7 +53055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:38" ht="14.25" hidden="1">
+    <row r="281" spans="1:38">
       <c r="A281" s="90" t="s">
         <v>309</v>
       </c>
@@ -53155,7 +53159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:38" ht="14.25" hidden="1">
+    <row r="282" spans="1:38">
       <c r="A282" s="90" t="s">
         <v>309</v>
       </c>
@@ -53265,7 +53269,7 @@
         <v>0.27879699248296674</v>
       </c>
     </row>
-    <row r="283" spans="1:38" ht="14.25" hidden="1">
+    <row r="283" spans="1:38">
       <c r="A283" s="90" t="s">
         <v>309</v>
       </c>
@@ -53369,7 +53373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:38" ht="14.25" hidden="1">
+    <row r="284" spans="1:38">
       <c r="A284" s="90" t="s">
         <v>309</v>
       </c>
@@ -53473,7 +53477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:38" ht="14.25" hidden="1">
+    <row r="285" spans="1:38">
       <c r="A285" s="90" t="s">
         <v>309</v>
       </c>
@@ -53581,7 +53585,7 @@
         <v>-8.8584507042253513</v>
       </c>
     </row>
-    <row r="286" spans="1:38" ht="14.25" hidden="1">
+    <row r="286" spans="1:38">
       <c r="A286" s="90" t="s">
         <v>309</v>
       </c>
@@ -53685,7 +53689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:38" ht="14.25" hidden="1">
+    <row r="287" spans="1:38">
       <c r="A287" s="90" t="s">
         <v>309</v>
       </c>
@@ -53795,7 +53799,7 @@
         <v>45.029999999999994</v>
       </c>
     </row>
-    <row r="288" spans="1:38" ht="14.25" hidden="1">
+    <row r="288" spans="1:38">
       <c r="A288" s="90" t="s">
         <v>309</v>
       </c>
@@ -53894,7 +53898,7 @@
       <c r="AJ288" s="110"/>
       <c r="AK288" s="110"/>
     </row>
-    <row r="289" spans="1:38" ht="14.25" hidden="1">
+    <row r="289" spans="1:38">
       <c r="A289" s="90" t="s">
         <v>309</v>
       </c>
@@ -53991,7 +53995,7 @@
       <c r="AJ289" s="110"/>
       <c r="AK289" s="110"/>
     </row>
-    <row r="290" spans="1:38" ht="14.25" hidden="1">
+    <row r="290" spans="1:38">
       <c r="A290" s="90" t="s">
         <v>309</v>
       </c>
@@ -54087,7 +54091,7 @@
       <c r="AJ290" s="110"/>
       <c r="AK290" s="110"/>
     </row>
-    <row r="291" spans="1:38" ht="15.75" hidden="1">
+    <row r="291" spans="1:38" ht="15">
       <c r="A291" s="90" t="s">
         <v>309</v>
       </c>
@@ -54188,7 +54192,7 @@
       <c r="AJ291" s="119"/>
       <c r="AK291" s="119"/>
     </row>
-    <row r="292" spans="1:38" ht="15.75" hidden="1">
+    <row r="292" spans="1:38" ht="15">
       <c r="A292" s="90" t="s">
         <v>309</v>
       </c>
@@ -54281,7 +54285,7 @@
       <c r="AJ292" s="121"/>
       <c r="AK292" s="121"/>
     </row>
-    <row r="293" spans="1:38" ht="14.25" hidden="1">
+    <row r="293" spans="1:38">
       <c r="A293" s="90" t="s">
         <v>309</v>
       </c>
@@ -54385,7 +54389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:38" ht="14.25" hidden="1">
+    <row r="294" spans="1:38">
       <c r="A294" s="90" t="s">
         <v>309</v>
       </c>
@@ -54489,7 +54493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:38" ht="14.25" hidden="1">
+    <row r="295" spans="1:38">
       <c r="A295" s="90" t="s">
         <v>309</v>
       </c>
@@ -54593,7 +54597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:38" ht="14.25" hidden="1">
+    <row r="296" spans="1:38">
       <c r="A296" s="90" t="s">
         <v>309</v>
       </c>
@@ -54697,7 +54701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:38" ht="14.25" hidden="1">
+    <row r="297" spans="1:38">
       <c r="A297" s="90" t="s">
         <v>309</v>
       </c>
@@ -54801,7 +54805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:38" ht="14.25" hidden="1">
+    <row r="298" spans="1:38">
       <c r="A298" s="90" t="s">
         <v>332</v>
       </c>
@@ -54843,7 +54847,7 @@
         <v>37</v>
       </c>
       <c r="O298" s="71">
-        <v>0</v>
+        <v>3.8399999999999997E-2</v>
       </c>
       <c r="P298" s="70"/>
       <c r="Q298" s="91"/>
@@ -54862,7 +54866,7 @@
       </c>
       <c r="V298" s="94">
         <f t="shared" ref="V298:V352" si="76">IF(N298="返现",T298,T298*(1+AE298)/(1+O298+AE298))</f>
-        <v>8686.14</v>
+        <v>8433.1456310679605</v>
       </c>
       <c r="W298" s="95"/>
       <c r="X298" s="22">
@@ -54871,7 +54875,7 @@
       </c>
       <c r="Y298" s="103">
         <f>IF(N298="返现",V298*O298,T298-V298)</f>
-        <v>0</v>
+        <v>252.99436893203892</v>
       </c>
       <c r="Z298" s="94">
         <f t="shared" si="71"/>
@@ -54884,36 +54888,36 @@
       <c r="AC298" s="110"/>
       <c r="AD298" s="110"/>
       <c r="AE298" s="71">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AF298" s="94">
         <f t="shared" si="72"/>
-        <v>8686.14</v>
+        <v>6786.0468749999991</v>
       </c>
       <c r="AG298" s="95">
         <v>0</v>
       </c>
       <c r="AH298" s="94">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>280000</v>
       </c>
       <c r="AI298" s="94">
         <v>8686.14</v>
       </c>
       <c r="AJ298" s="94">
         <f t="shared" ref="AJ298:AJ352" si="77">AG298+AH298-AI298+T298</f>
-        <v>0</v>
+        <v>280000</v>
       </c>
       <c r="AK298" s="94">
         <f>IF(N298="返现",AI298/(1+AE298),AI298/(1+O298+AE298))</f>
-        <v>8686.14</v>
+        <v>6588.3950242718438</v>
       </c>
       <c r="AL298" s="57">
         <f t="shared" ref="AL298:AL302" si="78">AK298-V298</f>
-        <v>0</v>
+        <v>-1844.7506067961167</v>
       </c>
     </row>
-    <row r="299" spans="1:38" ht="14.25" hidden="1">
+    <row r="299" spans="1:38">
       <c r="A299" s="90" t="s">
         <v>332</v>
       </c>
@@ -54952,10 +54956,10 @@
         <v>83</v>
       </c>
       <c r="N299" s="70" t="s">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="O299" s="71">
-        <v>0</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="P299" s="70"/>
       <c r="Q299" s="91"/>
@@ -54974,7 +54978,7 @@
       </c>
       <c r="V299" s="94">
         <f t="shared" si="76"/>
-        <v>19305.93</v>
+        <v>18743.621359223296</v>
       </c>
       <c r="W299" s="95"/>
       <c r="X299" s="22">
@@ -54983,7 +54987,7 @@
       </c>
       <c r="Y299" s="103">
         <f t="shared" ref="Y299:Y352" si="79">IF(N299="返现",V299*O299,T299-V299)</f>
-        <v>0</v>
+        <v>562.30864077670412</v>
       </c>
       <c r="Z299" s="94">
         <f t="shared" si="71"/>
@@ -54996,36 +55000,36 @@
       <c r="AC299" s="110"/>
       <c r="AD299" s="110"/>
       <c r="AE299" s="71">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AF299" s="94">
         <f t="shared" si="72"/>
-        <v>19305.93</v>
+        <v>13989.804347826088</v>
       </c>
       <c r="AG299" s="95">
         <v>0</v>
       </c>
       <c r="AH299" s="94">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>114000</v>
       </c>
       <c r="AI299" s="94">
         <v>19305.93</v>
       </c>
       <c r="AJ299" s="94">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>114000</v>
       </c>
       <c r="AK299" s="94">
         <f t="shared" ref="AK299:AK352" si="80">IF(N299="返现",AI299/(1+AE299),AI299/(1+O299+AE299))</f>
-        <v>19305.93</v>
+        <v>13582.334318277752</v>
       </c>
       <c r="AL299" s="57">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>-5161.2870409455445</v>
       </c>
     </row>
-    <row r="300" spans="1:38" ht="14.25" hidden="1">
+    <row r="300" spans="1:38">
       <c r="A300" s="90" t="s">
         <v>332</v>
       </c>
@@ -55140,7 +55144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:38" ht="14.25" hidden="1">
+    <row r="301" spans="1:38">
       <c r="A301" s="90" t="s">
         <v>332</v>
       </c>
@@ -55250,7 +55254,7 @@
         <v>-3015.3909677419324</v>
       </c>
     </row>
-    <row r="302" spans="1:38" ht="14.25" hidden="1">
+    <row r="302" spans="1:38">
       <c r="A302" s="90" t="s">
         <v>332</v>
       </c>
@@ -55359,7 +55363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:38" ht="14.25" hidden="1">
+    <row r="303" spans="1:38">
       <c r="A303" s="90" t="s">
         <v>332</v>
       </c>
@@ -55465,7 +55469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:38" ht="14.25" hidden="1">
+    <row r="304" spans="1:38">
       <c r="A304" s="90" t="s">
         <v>332</v>
       </c>
@@ -55575,7 +55579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:38" ht="14.25" hidden="1">
+    <row r="305" spans="1:38">
       <c r="A305" s="90" t="s">
         <v>332</v>
       </c>
@@ -55681,7 +55685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:38" ht="14.25" hidden="1">
+    <row r="306" spans="1:38">
       <c r="A306" s="90" t="s">
         <v>332</v>
       </c>
@@ -55787,7 +55791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:38" ht="14.25" hidden="1">
+    <row r="307" spans="1:38">
       <c r="A307" s="90" t="s">
         <v>332</v>
       </c>
@@ -55893,7 +55897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:38" ht="14.25">
+    <row r="308" spans="1:38">
       <c r="A308" s="90" t="s">
         <v>332</v>
       </c>
@@ -56003,7 +56007,7 @@
         <v>1.1340000000054715</v>
       </c>
     </row>
-    <row r="309" spans="1:38" ht="14.25" hidden="1">
+    <row r="309" spans="1:38">
       <c r="A309" s="90" t="s">
         <v>332</v>
       </c>
@@ -56109,7 +56113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:38" ht="14.25" hidden="1">
+    <row r="310" spans="1:38">
       <c r="A310" s="90" t="s">
         <v>332</v>
       </c>
@@ -56215,7 +56219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:38" ht="14.25" hidden="1">
+    <row r="311" spans="1:38">
       <c r="A311" s="90" t="s">
         <v>332</v>
       </c>
@@ -56321,7 +56325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:38" ht="14.25" hidden="1">
+    <row r="312" spans="1:38">
       <c r="A312" s="90" t="s">
         <v>332</v>
       </c>
@@ -56427,7 +56431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:38" ht="14.25" hidden="1">
+    <row r="313" spans="1:38">
       <c r="A313" s="90" t="s">
         <v>332</v>
       </c>
@@ -56533,7 +56537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:38" ht="14.25" hidden="1">
+    <row r="314" spans="1:38">
       <c r="A314" s="90" t="s">
         <v>332</v>
       </c>
@@ -56639,7 +56643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:38" ht="14.25" hidden="1">
+    <row r="315" spans="1:38">
       <c r="A315" s="90" t="s">
         <v>332</v>
       </c>
@@ -56745,7 +56749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:38" ht="14.25" hidden="1">
+    <row r="316" spans="1:38">
       <c r="A316" s="90" t="s">
         <v>332</v>
       </c>
@@ -56851,7 +56855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:38" ht="14.25" hidden="1">
+    <row r="317" spans="1:38">
       <c r="A317" s="90" t="s">
         <v>332</v>
       </c>
@@ -56957,7 +56961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:38" ht="14.25" hidden="1">
+    <row r="318" spans="1:38">
       <c r="A318" s="90" t="s">
         <v>332</v>
       </c>
@@ -57063,7 +57067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:38" ht="14.25" hidden="1">
+    <row r="319" spans="1:38">
       <c r="A319" s="90" t="s">
         <v>332</v>
       </c>
@@ -57169,7 +57173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:38" ht="14.25" hidden="1">
+    <row r="320" spans="1:38">
       <c r="A320" s="90" t="s">
         <v>332</v>
       </c>
@@ -57275,7 +57279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:37" ht="14.25" hidden="1">
+    <row r="321" spans="1:37">
       <c r="A321" s="90" t="s">
         <v>332</v>
       </c>
@@ -57381,7 +57385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:37" ht="14.25" hidden="1">
+    <row r="322" spans="1:37">
       <c r="A322" s="90" t="s">
         <v>332</v>
       </c>
@@ -57487,7 +57491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:37" ht="14.25" hidden="1">
+    <row r="323" spans="1:37">
       <c r="A323" s="90" t="s">
         <v>332</v>
       </c>
@@ -57593,7 +57597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:37" ht="14.25" hidden="1">
+    <row r="324" spans="1:37">
       <c r="A324" s="90" t="s">
         <v>332</v>
       </c>
@@ -57699,7 +57703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:37" ht="14.25" hidden="1">
+    <row r="325" spans="1:37">
       <c r="A325" s="90" t="s">
         <v>332</v>
       </c>
@@ -57805,7 +57809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:37" ht="14.25" hidden="1">
+    <row r="326" spans="1:37">
       <c r="A326" s="90" t="s">
         <v>332</v>
       </c>
@@ -57911,7 +57915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:37" ht="14.25" hidden="1">
+    <row r="327" spans="1:37">
       <c r="A327" s="90" t="s">
         <v>332</v>
       </c>
@@ -58017,7 +58021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:37" ht="14.25" hidden="1">
+    <row r="328" spans="1:37">
       <c r="A328" s="90" t="s">
         <v>332</v>
       </c>
@@ -58123,7 +58127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:37" ht="14.25" hidden="1">
+    <row r="329" spans="1:37">
       <c r="A329" s="90" t="s">
         <v>332</v>
       </c>
@@ -58229,7 +58233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:37" ht="14.25" hidden="1">
+    <row r="330" spans="1:37">
       <c r="A330" s="90" t="s">
         <v>332</v>
       </c>
@@ -58335,7 +58339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:37" ht="14.25" hidden="1">
+    <row r="331" spans="1:37">
       <c r="A331" s="90" t="s">
         <v>332</v>
       </c>
@@ -58441,7 +58445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:37" ht="14.25" hidden="1">
+    <row r="332" spans="1:37">
       <c r="A332" s="90" t="s">
         <v>332</v>
       </c>
@@ -58547,7 +58551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:37" ht="14.25" hidden="1">
+    <row r="333" spans="1:37">
       <c r="A333" s="90" t="s">
         <v>332</v>
       </c>
@@ -58653,7 +58657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:37" ht="14.25" hidden="1">
+    <row r="334" spans="1:37">
       <c r="A334" s="90" t="s">
         <v>332</v>
       </c>
@@ -58759,7 +58763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:37" ht="14.25" hidden="1">
+    <row r="335" spans="1:37">
       <c r="A335" s="90" t="s">
         <v>332</v>
       </c>
@@ -58865,7 +58869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:37" ht="14.25" hidden="1">
+    <row r="336" spans="1:37">
       <c r="A336" s="90" t="s">
         <v>332</v>
       </c>
@@ -58971,7 +58975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:38" ht="14.25" hidden="1">
+    <row r="337" spans="1:38">
       <c r="A337" s="90" t="s">
         <v>332</v>
       </c>
@@ -59077,7 +59081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:38" ht="14.25" hidden="1">
+    <row r="338" spans="1:38">
       <c r="A338" s="90" t="s">
         <v>332</v>
       </c>
@@ -59183,7 +59187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:38" ht="14.25" hidden="1">
+    <row r="339" spans="1:38">
       <c r="A339" s="90" t="s">
         <v>332</v>
       </c>
@@ -59289,7 +59293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:38" ht="14.25" hidden="1">
+    <row r="340" spans="1:38">
       <c r="A340" s="90" t="s">
         <v>332</v>
       </c>
@@ -59399,7 +59403,7 @@
         <v>2.2426778241424472E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:38" ht="14.25" hidden="1">
+    <row r="341" spans="1:38">
       <c r="A341" s="90" t="s">
         <v>332</v>
       </c>
@@ -59505,7 +59509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:38" ht="14.25" hidden="1">
+    <row r="342" spans="1:38">
       <c r="A342" s="90" t="s">
         <v>332</v>
       </c>
@@ -59611,7 +59615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:38" ht="14.25" hidden="1">
+    <row r="343" spans="1:38">
       <c r="A343" s="90" t="s">
         <v>332</v>
       </c>
@@ -59721,7 +59725,7 @@
         <v>5285.372932336295</v>
       </c>
     </row>
-    <row r="344" spans="1:38" ht="14.25" hidden="1">
+    <row r="344" spans="1:38">
       <c r="A344" s="90" t="s">
         <v>332</v>
       </c>
@@ -59827,7 +59831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:38" ht="14.25" hidden="1">
+    <row r="345" spans="1:38">
       <c r="A345" s="90" t="s">
         <v>332</v>
       </c>
@@ -59933,7 +59937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:38" ht="14.25" hidden="1">
+    <row r="346" spans="1:38">
       <c r="A346" s="90" t="s">
         <v>332</v>
       </c>
@@ -60043,7 +60047,7 @@
         <v>-8.3792957746478862</v>
       </c>
     </row>
-    <row r="347" spans="1:38" ht="14.25" hidden="1">
+    <row r="347" spans="1:38">
       <c r="A347" s="90" t="s">
         <v>332</v>
       </c>
@@ -60149,7 +60153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:38" ht="14.25" hidden="1">
+    <row r="348" spans="1:38">
       <c r="A348" s="90" t="s">
         <v>332</v>
       </c>
@@ -60255,7 +60259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:38" ht="14.25" hidden="1">
+    <row r="349" spans="1:38">
       <c r="A349" s="90" t="s">
         <v>332</v>
       </c>
@@ -60361,7 +60365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:38" ht="14.25" hidden="1">
+    <row r="350" spans="1:38">
       <c r="A350" s="90" t="s">
         <v>332</v>
       </c>
@@ -60467,7 +60471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:38" ht="14.25" hidden="1">
+    <row r="351" spans="1:38">
       <c r="A351" s="90" t="s">
         <v>332</v>
       </c>
@@ -60573,7 +60577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:38" ht="14.25" hidden="1">
+    <row r="352" spans="1:38">
       <c r="A352" s="90" t="s">
         <v>332</v>
       </c>
@@ -60679,7 +60683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:38" ht="14.25" hidden="1">
+    <row r="353" spans="1:38">
       <c r="A353" s="90" t="s">
         <v>332</v>
       </c>
@@ -60774,7 +60778,7 @@
       <c r="AJ353" s="104"/>
       <c r="AK353" s="104"/>
     </row>
-    <row r="354" spans="1:38" ht="14.25" hidden="1">
+    <row r="354" spans="1:38">
       <c r="A354" s="90" t="s">
         <v>332</v>
       </c>
@@ -60871,7 +60875,7 @@
       <c r="AJ354" s="95"/>
       <c r="AK354" s="95"/>
     </row>
-    <row r="355" spans="1:38" ht="14.25" hidden="1">
+    <row r="355" spans="1:38">
       <c r="A355" s="90" t="s">
         <v>332</v>
       </c>
@@ -60968,7 +60972,7 @@
       <c r="AJ355" s="95"/>
       <c r="AK355" s="95"/>
     </row>
-    <row r="356" spans="1:38" ht="14.25" hidden="1">
+    <row r="356" spans="1:38">
       <c r="A356" s="90" t="s">
         <v>332</v>
       </c>
@@ -61063,7 +61067,7 @@
       <c r="AJ356" s="110"/>
       <c r="AK356" s="110"/>
     </row>
-    <row r="357" spans="1:38" ht="14.25" hidden="1">
+    <row r="357" spans="1:38">
       <c r="A357" s="90" t="s">
         <v>332</v>
       </c>
@@ -61164,7 +61168,7 @@
       <c r="AJ357" s="110"/>
       <c r="AK357" s="110"/>
     </row>
-    <row r="358" spans="1:38" ht="14.25" hidden="1">
+    <row r="358" spans="1:38">
       <c r="A358" s="90" t="s">
         <v>332</v>
       </c>
@@ -61259,7 +61263,7 @@
       <c r="AJ358" s="103"/>
       <c r="AK358" s="103"/>
     </row>
-    <row r="359" spans="1:38" ht="14.25" hidden="1">
+    <row r="359" spans="1:38">
       <c r="A359" s="90" t="s">
         <v>332</v>
       </c>
@@ -61340,7 +61344,7 @@
       <c r="AJ359" s="110"/>
       <c r="AK359" s="110"/>
     </row>
-    <row r="360" spans="1:38" ht="14.25" hidden="1">
+    <row r="360" spans="1:38">
       <c r="A360" s="90" t="s">
         <v>332</v>
       </c>
@@ -61419,7 +61423,7 @@
       <c r="AJ360" s="110"/>
       <c r="AK360" s="110"/>
     </row>
-    <row r="361" spans="1:38" ht="14.25" hidden="1">
+    <row r="361" spans="1:38">
       <c r="A361" s="90" t="s">
         <v>332</v>
       </c>
@@ -61498,7 +61502,7 @@
       <c r="AJ361" s="110"/>
       <c r="AK361" s="110"/>
     </row>
-    <row r="362" spans="1:38" ht="14.25" hidden="1">
+    <row r="362" spans="1:38">
       <c r="A362" s="90" t="s">
         <v>332</v>
       </c>
@@ -61577,7 +61581,7 @@
       <c r="AJ362" s="110"/>
       <c r="AK362" s="110"/>
     </row>
-    <row r="363" spans="1:38" ht="14.25" hidden="1">
+    <row r="363" spans="1:38">
       <c r="A363" s="90" t="s">
         <v>332</v>
       </c>
@@ -61656,7 +61660,7 @@
       <c r="AJ363" s="110"/>
       <c r="AK363" s="110"/>
     </row>
-    <row r="364" spans="1:38" ht="14.25" hidden="1">
+    <row r="364" spans="1:38">
       <c r="A364" s="90" t="s">
         <v>332</v>
       </c>
@@ -61758,19 +61762,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL364">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="事业4部"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="北京多彩-广州四三九九信息科技有限公司"/>
-        <filter val="北京多彩互动广告有限公司-广州四三九九信息科技有限公司01"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AL364"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="Q126">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
@@ -61814,34 +61806,34 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="133" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="133" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="133" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="133" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" style="133" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="133" customWidth="1"/>
+    <col min="4" max="4" width="25.90625" style="133" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="158" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="133" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="159" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="133" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="159" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" style="133" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="133" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="159" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.375" style="133" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6328125" style="159" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.36328125" style="133" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="133" customWidth="1"/>
     <col min="14" max="14" width="8" style="133" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5" style="159" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="159" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15.875" style="133" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.5" style="133" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.375" style="133" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" style="159" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.08984375" style="159" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.90625" style="133" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.453125" style="133" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.36328125" style="133" customWidth="1"/>
     <col min="21" max="21" width="8" style="133" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="133"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" thickBot="1">
+    <row r="1" spans="1:21" ht="15" thickBot="1">
       <c r="A1" s="129" t="s">
         <v>8</v>
       </c>
@@ -64111,20 +64103,20 @@
       </c>
       <c r="O36" s="127">
         <f>SUMIFS(客户表!V:V,客户表!I:I,媒体表!A36,客户表!A:A,媒体表!E36,客户表!M:M,媒体表!F36)+SUMIFS(客户表!W:W,客户表!I:I,媒体表!A36,客户表!A:A,媒体表!E36,客户表!M:M,媒体表!F36)+SUMIFS(客户表!AL:AL,客户表!I:I,媒体表!A36,客户表!A:A,媒体表!E36,客户表!M:M,媒体表!F36)</f>
-        <v>3321803.9905179874</v>
+        <v>3319706.245542259</v>
       </c>
       <c r="P36" s="125"/>
       <c r="Q36" s="146">
         <f t="shared" si="4"/>
-        <v>2144713.1792622558</v>
+        <v>2142734.1745681725</v>
       </c>
       <c r="R36" s="146">
         <f t="shared" si="1"/>
-        <v>2144713.1792622558</v>
+        <v>2142734.1745681725</v>
       </c>
       <c r="S36" s="141">
         <f t="shared" si="2"/>
-        <v>0.64564711987350543</v>
+        <v>0.64545897018613063</v>
       </c>
       <c r="T36" s="125"/>
       <c r="U36" s="125" t="s">
@@ -64171,20 +64163,20 @@
       </c>
       <c r="O37" s="127">
         <f>SUMIFS(客户表!V:V,客户表!I:I,媒体表!A37,客户表!A:A,媒体表!E37,客户表!M:M,媒体表!F37)+SUMIFS(客户表!W:W,客户表!I:I,媒体表!A37,客户表!A:A,媒体表!E37,客户表!M:M,媒体表!F37)+SUMIFS(客户表!AL:AL,客户表!I:I,媒体表!A37,客户表!A:A,媒体表!E37,客户表!M:M,媒体表!F37)</f>
-        <v>315824.3277822581</v>
+        <v>310100.73210053582</v>
       </c>
       <c r="P37" s="125"/>
       <c r="Q37" s="146">
         <f t="shared" si="4"/>
-        <v>200709.03705873404</v>
+        <v>195309.4184910715</v>
       </c>
       <c r="R37" s="146">
         <f t="shared" si="1"/>
-        <v>200709.03705873404</v>
+        <v>195309.4184910715</v>
       </c>
       <c r="S37" s="141">
         <f t="shared" si="2"/>
-        <v>0.63550847544939881</v>
+        <v>0.62982572523482938</v>
       </c>
       <c r="T37" s="125"/>
       <c r="U37" s="125" t="s">
